--- a/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.86173507211875</v>
+        <v>21.86173507211886</v>
       </c>
       <c r="C2">
-        <v>28.68556407460389</v>
+        <v>28.68556407460405</v>
       </c>
       <c r="D2">
-        <v>7.361752678286028</v>
+        <v>7.361752678286136</v>
       </c>
       <c r="E2">
-        <v>9.714898519544333</v>
+        <v>9.714898519544411</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.56030934878333</v>
+        <v>64.56030934878351</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>20.48974580619277</v>
+        <v>20.48974580619285</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.0544259273324</v>
+        <v>20.05442592733248</v>
       </c>
       <c r="C3">
-        <v>26.4488010240053</v>
+        <v>26.44880102400565</v>
       </c>
       <c r="D3">
-        <v>6.794381762661512</v>
+        <v>6.794381762661561</v>
       </c>
       <c r="E3">
-        <v>9.142408747037464</v>
+        <v>9.142408747037473</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.26549872233171</v>
+        <v>60.26549872233225</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>18.89706856225945</v>
+        <v>18.89706856225955</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.91741859642544</v>
+        <v>18.91741859642541</v>
       </c>
       <c r="C4">
-        <v>25.0334125325354</v>
+        <v>25.03341253253529</v>
       </c>
       <c r="D4">
-        <v>6.434283420647978</v>
+        <v>6.434283420647972</v>
       </c>
       <c r="E4">
-        <v>8.786810873479881</v>
+        <v>8.786810873479824</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.56423470407912</v>
+        <v>57.56423470407847</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>17.88844217904976</v>
+        <v>17.88844217904975</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.4462421535418</v>
+        <v>18.44624215354177</v>
       </c>
       <c r="C5">
-        <v>24.4451287631458</v>
+        <v>24.44512876314563</v>
       </c>
       <c r="D5">
-        <v>6.284344081357313</v>
+        <v>6.284344081357405</v>
       </c>
       <c r="E5">
-        <v>8.640790371921595</v>
+        <v>8.640790371921609</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.44614191597036</v>
+        <v>56.4461419159703</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>17.4689466003984</v>
+        <v>17.46894660039834</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.36750516221017</v>
+        <v>18.36750516220997</v>
       </c>
       <c r="C6">
-        <v>24.34672594418394</v>
+        <v>24.34672594418382</v>
       </c>
       <c r="D6">
-        <v>6.259247208877639</v>
+        <v>6.25924720887765</v>
       </c>
       <c r="E6">
-        <v>8.616475387276404</v>
+        <v>8.61647538727642</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.25941214233266</v>
+        <v>56.25941214233268</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>17.39875827039879</v>
+        <v>17.39875827039874</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.91109703613757</v>
+        <v>18.91109703613738</v>
       </c>
       <c r="C7">
-        <v>25.02552641258254</v>
+        <v>25.02552641258265</v>
       </c>
       <c r="D7">
-        <v>6.432274527037205</v>
+        <v>6.432274527037088</v>
       </c>
       <c r="E7">
-        <v>8.784846155617078</v>
+        <v>8.784846155617037</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.54922701757324</v>
+        <v>57.54922701757281</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.8828199238144</v>
+        <v>17.88281992381433</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.24360344097108</v>
+        <v>21.24360344097135</v>
       </c>
       <c r="C8">
-        <v>27.92242178443169</v>
+        <v>27.92242178443168</v>
       </c>
       <c r="D8">
-        <v>7.168396457472835</v>
+        <v>7.168396457472741</v>
       </c>
       <c r="E8">
         <v>9.518281178830327</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.09196315944773</v>
+        <v>63.09196315944818</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>19.94647571476448</v>
+        <v>19.94647571476459</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.65621822466501</v>
+        <v>25.65621822466512</v>
       </c>
       <c r="C9">
-        <v>33.3243348444747</v>
+        <v>33.32433484447485</v>
       </c>
       <c r="D9">
-        <v>8.532626453764381</v>
+        <v>8.532626453764601</v>
       </c>
       <c r="E9">
-        <v>10.93190817442841</v>
+        <v>10.93190817442844</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.52935860897082</v>
+        <v>73.52935860897138</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>23.79148852873486</v>
+        <v>23.79148852873497</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.90316918738998</v>
+        <v>28.90316918739028</v>
       </c>
       <c r="C10">
-        <v>37.22583624811089</v>
+        <v>37.22583624811147</v>
       </c>
       <c r="D10">
-        <v>9.51189516521069</v>
+        <v>9.511895165210822</v>
       </c>
       <c r="E10">
-        <v>11.97423183164746</v>
+        <v>11.97423183164752</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>81.09494120614788</v>
+        <v>81.09494120614926</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>26.57068866710484</v>
+        <v>26.57068866710507</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.41631568962192</v>
+        <v>30.41631568962214</v>
       </c>
       <c r="C11">
-        <v>39.02101655194512</v>
+        <v>39.02101655194569</v>
       </c>
       <c r="D11">
-        <v>9.9608088314556</v>
+        <v>9.960808831455664</v>
       </c>
       <c r="E11">
-        <v>12.45661385207569</v>
+        <v>12.45661385207576</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>84.57207028084109</v>
+        <v>84.57207028084274</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>27.85090474137213</v>
+        <v>27.85090474137237</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.99888883284625</v>
+        <v>30.99888883284624</v>
       </c>
       <c r="C12">
-        <v>39.70812795571103</v>
+        <v>39.7081279557109</v>
       </c>
       <c r="D12">
-        <v>10.13234476187628</v>
+        <v>10.13234476187627</v>
       </c>
       <c r="E12">
-        <v>12.64144504835635</v>
+        <v>12.64144504835637</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>85.90126747029207</v>
+        <v>85.90126747029232</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>28.34120946587151</v>
+        <v>28.34120946587149</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.87290591747893</v>
+        <v>30.87290591747885</v>
       </c>
       <c r="C13">
-        <v>39.5597314246298</v>
+        <v>39.55973142462955</v>
       </c>
       <c r="D13">
-        <v>10.09531157724456</v>
+        <v>10.09531157724454</v>
       </c>
       <c r="E13">
-        <v>12.60152179634202</v>
+        <v>12.60152179634194</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>85.61429484648883</v>
+        <v>85.61429484648833</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>28.23530278848057</v>
+        <v>28.23530278848049</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.46402088072718</v>
+        <v>30.46402088072686</v>
       </c>
       <c r="C14">
-        <v>39.07736749069413</v>
+        <v>39.07736749069382</v>
       </c>
       <c r="D14">
-        <v>9.974882793270478</v>
+        <v>9.974882793270339</v>
       </c>
       <c r="E14">
-        <v>12.47176951048459</v>
+        <v>12.47176951048453</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>84.68112073599546</v>
+        <v>84.68112073599518</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>27.89110879295167</v>
+        <v>27.89110879295147</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.21497433373674</v>
+        <v>30.21497433373682</v>
       </c>
       <c r="C15">
-        <v>38.78301847938008</v>
+        <v>38.7830184793803</v>
       </c>
       <c r="D15">
-        <v>9.901355611294377</v>
+        <v>9.90135561129442</v>
       </c>
       <c r="E15">
-        <v>12.39261056514082</v>
+        <v>12.39261056514087</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>84.11142068317558</v>
+        <v>84.11142068317604</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>27.68111554833174</v>
+        <v>27.68111554833191</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.80534556428822</v>
+        <v>28.80534556428844</v>
       </c>
       <c r="C16">
-        <v>37.10926450500259</v>
+        <v>37.1092645050026</v>
       </c>
       <c r="D16">
-        <v>9.482707603505041</v>
+        <v>9.482707603505267</v>
       </c>
       <c r="E16">
-        <v>11.94294737188349</v>
+        <v>11.9429473718836</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>80.86898372741739</v>
+        <v>80.86898372741791</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>26.48759270672066</v>
+        <v>26.48759270672079</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.95246082777888</v>
+        <v>27.95246082777895</v>
       </c>
       <c r="C17">
-        <v>36.09031859725037</v>
+        <v>36.0903185972505</v>
       </c>
       <c r="D17">
-        <v>9.227391990361507</v>
+        <v>9.227391990361651</v>
       </c>
       <c r="E17">
-        <v>11.66977938125808</v>
+        <v>11.66977938125814</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78.89335474310202</v>
+        <v>78.89335474310226</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>25.76142576933177</v>
+        <v>25.76142576933188</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.46496457144753</v>
+        <v>27.46496457144734</v>
       </c>
       <c r="C18">
-        <v>35.50582812221657</v>
+        <v>35.50582812221632</v>
       </c>
       <c r="D18">
-        <v>9.080784833818308</v>
+        <v>9.080784833818425</v>
       </c>
       <c r="E18">
-        <v>11.51335746923825</v>
+        <v>11.5133574692382</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77.75979676269407</v>
+        <v>77.75979676269317</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>25.34500779024894</v>
+        <v>25.34500779024883</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.30032419203228</v>
+        <v>27.30032419203221</v>
       </c>
       <c r="C19">
-        <v>35.30809300947168</v>
+        <v>35.30809300947138</v>
       </c>
       <c r="D19">
-        <v>9.031162090853581</v>
+        <v>9.031162090853428</v>
       </c>
       <c r="E19">
-        <v>11.4604917130583</v>
+        <v>11.46049171305818</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>77.37628869230953</v>
+        <v>77.37628869230925</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>25.20415157934728</v>
+        <v>25.20415157934717</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.0429085315962</v>
+        <v>28.04290853159627</v>
       </c>
       <c r="C20">
-        <v>36.19859700885876</v>
+        <v>36.19859700885898</v>
       </c>
       <c r="D20">
-        <v>9.25453919134848</v>
+        <v>9.254539191348467</v>
       </c>
       <c r="E20">
-        <v>11.69878058356591</v>
+        <v>11.69878058356588</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>79.10333247417721</v>
+        <v>79.10333247417752</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>25.83857813115479</v>
+        <v>25.83857813115485</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.58381654436777</v>
+        <v>30.58381654436804</v>
       </c>
       <c r="C21">
-        <v>39.21880706121336</v>
+        <v>39.21880706121352</v>
       </c>
       <c r="D21">
-        <v>10.01020335963707</v>
+        <v>10.01020335963702</v>
       </c>
       <c r="E21">
         <v>12.5098122249557</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>84.95480372920713</v>
+        <v>84.95480372920778</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>27.9920251051166</v>
+        <v>27.99202510511669</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.30380814580331</v>
+        <v>32.30380814580334</v>
       </c>
       <c r="C22">
-        <v>41.23886893667177</v>
+        <v>41.23886893667198</v>
       </c>
       <c r="D22">
         <v>10.51390032917618</v>
       </c>
       <c r="E22">
-        <v>13.05329338398191</v>
+        <v>13.05329338398187</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>88.85783248766472</v>
+        <v>88.85783248766455</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.37841498272993</v>
+        <v>31.37841498273011</v>
       </c>
       <c r="C23">
-        <v>40.15452799629912</v>
+        <v>40.15452799629902</v>
       </c>
       <c r="D23">
-        <v>10.24370044159396</v>
+        <v>10.24370044159409</v>
       </c>
       <c r="E23">
-        <v>12.76155015072742</v>
+        <v>12.76155015072743</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>86.76417901045113</v>
+        <v>86.7641790104511</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>28.65984375049612</v>
+        <v>28.65984375049619</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.00200858760481</v>
+        <v>28.00200858760476</v>
       </c>
       <c r="C24">
-        <v>36.14964054695741</v>
+        <v>36.14964054695747</v>
       </c>
       <c r="D24">
-        <v>9.242265462640928</v>
+        <v>9.242265462640903</v>
       </c>
       <c r="E24">
-        <v>11.68566725776943</v>
+        <v>11.6856672577694</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>79.00839502159758</v>
+        <v>79.00839502159755</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>25.80369445461534</v>
+        <v>25.80369445461529</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.47079700134386</v>
+        <v>24.47079700134416</v>
       </c>
       <c r="C25">
-        <v>31.88394893059946</v>
+        <v>31.88394893059964</v>
       </c>
       <c r="D25">
-        <v>8.169840705237329</v>
+        <v>8.169840705237448</v>
       </c>
       <c r="E25">
-        <v>10.5506579160775</v>
+        <v>10.55065791607751</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.73863473313995</v>
+        <v>70.73863473314032</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>22.76616423610579</v>
+        <v>22.76616423610588</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.86173507211886</v>
+        <v>21.86173507211875</v>
       </c>
       <c r="C2">
-        <v>28.68556407460405</v>
+        <v>28.68556407460389</v>
       </c>
       <c r="D2">
-        <v>7.361752678286136</v>
+        <v>7.361752678286028</v>
       </c>
       <c r="E2">
-        <v>9.714898519544411</v>
+        <v>9.714898519544333</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.56030934878351</v>
+        <v>64.56030934878333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>20.48974580619285</v>
+        <v>20.48974580619277</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.05442592733248</v>
+        <v>20.0544259273324</v>
       </c>
       <c r="C3">
-        <v>26.44880102400565</v>
+        <v>26.4488010240053</v>
       </c>
       <c r="D3">
-        <v>6.794381762661561</v>
+        <v>6.794381762661512</v>
       </c>
       <c r="E3">
-        <v>9.142408747037473</v>
+        <v>9.142408747037464</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.26549872233225</v>
+        <v>60.26549872233171</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>18.89706856225955</v>
+        <v>18.89706856225945</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.91741859642541</v>
+        <v>18.91741859642544</v>
       </c>
       <c r="C4">
-        <v>25.03341253253529</v>
+        <v>25.0334125325354</v>
       </c>
       <c r="D4">
-        <v>6.434283420647972</v>
+        <v>6.434283420647978</v>
       </c>
       <c r="E4">
-        <v>8.786810873479824</v>
+        <v>8.786810873479881</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.56423470407847</v>
+        <v>57.56423470407912</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>17.88844217904975</v>
+        <v>17.88844217904976</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.44624215354177</v>
+        <v>18.4462421535418</v>
       </c>
       <c r="C5">
-        <v>24.44512876314563</v>
+        <v>24.4451287631458</v>
       </c>
       <c r="D5">
-        <v>6.284344081357405</v>
+        <v>6.284344081357313</v>
       </c>
       <c r="E5">
-        <v>8.640790371921609</v>
+        <v>8.640790371921595</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.4461419159703</v>
+        <v>56.44614191597036</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>17.46894660039834</v>
+        <v>17.4689466003984</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.36750516220997</v>
+        <v>18.36750516221017</v>
       </c>
       <c r="C6">
-        <v>24.34672594418382</v>
+        <v>24.34672594418394</v>
       </c>
       <c r="D6">
-        <v>6.25924720887765</v>
+        <v>6.259247208877639</v>
       </c>
       <c r="E6">
-        <v>8.61647538727642</v>
+        <v>8.616475387276404</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.25941214233268</v>
+        <v>56.25941214233266</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>17.39875827039874</v>
+        <v>17.39875827039879</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.91109703613738</v>
+        <v>18.91109703613757</v>
       </c>
       <c r="C7">
-        <v>25.02552641258265</v>
+        <v>25.02552641258254</v>
       </c>
       <c r="D7">
-        <v>6.432274527037088</v>
+        <v>6.432274527037205</v>
       </c>
       <c r="E7">
-        <v>8.784846155617037</v>
+        <v>8.784846155617078</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.54922701757281</v>
+        <v>57.54922701757324</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.88281992381433</v>
+        <v>17.8828199238144</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.24360344097135</v>
+        <v>21.24360344097108</v>
       </c>
       <c r="C8">
-        <v>27.92242178443168</v>
+        <v>27.92242178443169</v>
       </c>
       <c r="D8">
-        <v>7.168396457472741</v>
+        <v>7.168396457472835</v>
       </c>
       <c r="E8">
         <v>9.518281178830327</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.09196315944818</v>
+        <v>63.09196315944773</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>19.94647571476459</v>
+        <v>19.94647571476448</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.65621822466512</v>
+        <v>25.65621822466501</v>
       </c>
       <c r="C9">
-        <v>33.32433484447485</v>
+        <v>33.3243348444747</v>
       </c>
       <c r="D9">
-        <v>8.532626453764601</v>
+        <v>8.532626453764381</v>
       </c>
       <c r="E9">
-        <v>10.93190817442844</v>
+        <v>10.93190817442841</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.52935860897138</v>
+        <v>73.52935860897082</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>23.79148852873497</v>
+        <v>23.79148852873486</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.90316918739028</v>
+        <v>28.90316918738998</v>
       </c>
       <c r="C10">
-        <v>37.22583624811147</v>
+        <v>37.22583624811089</v>
       </c>
       <c r="D10">
-        <v>9.511895165210822</v>
+        <v>9.51189516521069</v>
       </c>
       <c r="E10">
-        <v>11.97423183164752</v>
+        <v>11.97423183164746</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>81.09494120614926</v>
+        <v>81.09494120614788</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>26.57068866710507</v>
+        <v>26.57068866710484</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.41631568962214</v>
+        <v>30.41631568962192</v>
       </c>
       <c r="C11">
-        <v>39.02101655194569</v>
+        <v>39.02101655194512</v>
       </c>
       <c r="D11">
-        <v>9.960808831455664</v>
+        <v>9.9608088314556</v>
       </c>
       <c r="E11">
-        <v>12.45661385207576</v>
+        <v>12.45661385207569</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>84.57207028084274</v>
+        <v>84.57207028084109</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>27.85090474137237</v>
+        <v>27.85090474137213</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.99888883284624</v>
+        <v>30.99888883284625</v>
       </c>
       <c r="C12">
-        <v>39.7081279557109</v>
+        <v>39.70812795571103</v>
       </c>
       <c r="D12">
-        <v>10.13234476187627</v>
+        <v>10.13234476187628</v>
       </c>
       <c r="E12">
-        <v>12.64144504835637</v>
+        <v>12.64144504835635</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>85.90126747029232</v>
+        <v>85.90126747029207</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>28.34120946587149</v>
+        <v>28.34120946587151</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.87290591747885</v>
+        <v>30.87290591747893</v>
       </c>
       <c r="C13">
-        <v>39.55973142462955</v>
+        <v>39.5597314246298</v>
       </c>
       <c r="D13">
-        <v>10.09531157724454</v>
+        <v>10.09531157724456</v>
       </c>
       <c r="E13">
-        <v>12.60152179634194</v>
+        <v>12.60152179634202</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>85.61429484648833</v>
+        <v>85.61429484648883</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>28.23530278848049</v>
+        <v>28.23530278848057</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.46402088072686</v>
+        <v>30.46402088072718</v>
       </c>
       <c r="C14">
-        <v>39.07736749069382</v>
+        <v>39.07736749069413</v>
       </c>
       <c r="D14">
-        <v>9.974882793270339</v>
+        <v>9.974882793270478</v>
       </c>
       <c r="E14">
-        <v>12.47176951048453</v>
+        <v>12.47176951048459</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>84.68112073599518</v>
+        <v>84.68112073599546</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>27.89110879295147</v>
+        <v>27.89110879295167</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.21497433373682</v>
+        <v>30.21497433373674</v>
       </c>
       <c r="C15">
-        <v>38.7830184793803</v>
+        <v>38.78301847938008</v>
       </c>
       <c r="D15">
-        <v>9.90135561129442</v>
+        <v>9.901355611294377</v>
       </c>
       <c r="E15">
-        <v>12.39261056514087</v>
+        <v>12.39261056514082</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>84.11142068317604</v>
+        <v>84.11142068317558</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>27.68111554833191</v>
+        <v>27.68111554833174</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.80534556428844</v>
+        <v>28.80534556428822</v>
       </c>
       <c r="C16">
-        <v>37.1092645050026</v>
+        <v>37.10926450500259</v>
       </c>
       <c r="D16">
-        <v>9.482707603505267</v>
+        <v>9.482707603505041</v>
       </c>
       <c r="E16">
-        <v>11.9429473718836</v>
+        <v>11.94294737188349</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>80.86898372741791</v>
+        <v>80.86898372741739</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>26.48759270672079</v>
+        <v>26.48759270672066</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.95246082777895</v>
+        <v>27.95246082777888</v>
       </c>
       <c r="C17">
-        <v>36.0903185972505</v>
+        <v>36.09031859725037</v>
       </c>
       <c r="D17">
-        <v>9.227391990361651</v>
+        <v>9.227391990361507</v>
       </c>
       <c r="E17">
-        <v>11.66977938125814</v>
+        <v>11.66977938125808</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78.89335474310226</v>
+        <v>78.89335474310202</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>25.76142576933188</v>
+        <v>25.76142576933177</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.46496457144734</v>
+        <v>27.46496457144753</v>
       </c>
       <c r="C18">
-        <v>35.50582812221632</v>
+        <v>35.50582812221657</v>
       </c>
       <c r="D18">
-        <v>9.080784833818425</v>
+        <v>9.080784833818308</v>
       </c>
       <c r="E18">
-        <v>11.5133574692382</v>
+        <v>11.51335746923825</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77.75979676269317</v>
+        <v>77.75979676269407</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>25.34500779024883</v>
+        <v>25.34500779024894</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.30032419203221</v>
+        <v>27.30032419203228</v>
       </c>
       <c r="C19">
-        <v>35.30809300947138</v>
+        <v>35.30809300947168</v>
       </c>
       <c r="D19">
-        <v>9.031162090853428</v>
+        <v>9.031162090853581</v>
       </c>
       <c r="E19">
-        <v>11.46049171305818</v>
+        <v>11.4604917130583</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>77.37628869230925</v>
+        <v>77.37628869230953</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>25.20415157934717</v>
+        <v>25.20415157934728</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.04290853159627</v>
+        <v>28.0429085315962</v>
       </c>
       <c r="C20">
-        <v>36.19859700885898</v>
+        <v>36.19859700885876</v>
       </c>
       <c r="D20">
-        <v>9.254539191348467</v>
+        <v>9.25453919134848</v>
       </c>
       <c r="E20">
-        <v>11.69878058356588</v>
+        <v>11.69878058356591</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>79.10333247417752</v>
+        <v>79.10333247417721</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>25.83857813115485</v>
+        <v>25.83857813115479</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.58381654436804</v>
+        <v>30.58381654436777</v>
       </c>
       <c r="C21">
-        <v>39.21880706121352</v>
+        <v>39.21880706121336</v>
       </c>
       <c r="D21">
-        <v>10.01020335963702</v>
+        <v>10.01020335963707</v>
       </c>
       <c r="E21">
         <v>12.5098122249557</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>84.95480372920778</v>
+        <v>84.95480372920713</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>27.99202510511669</v>
+        <v>27.9920251051166</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.30380814580334</v>
+        <v>32.30380814580331</v>
       </c>
       <c r="C22">
-        <v>41.23886893667198</v>
+        <v>41.23886893667177</v>
       </c>
       <c r="D22">
         <v>10.51390032917618</v>
       </c>
       <c r="E22">
-        <v>13.05329338398187</v>
+        <v>13.05329338398191</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>88.85783248766455</v>
+        <v>88.85783248766472</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.37841498273011</v>
+        <v>31.37841498272993</v>
       </c>
       <c r="C23">
-        <v>40.15452799629902</v>
+        <v>40.15452799629912</v>
       </c>
       <c r="D23">
-        <v>10.24370044159409</v>
+        <v>10.24370044159396</v>
       </c>
       <c r="E23">
-        <v>12.76155015072743</v>
+        <v>12.76155015072742</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>86.7641790104511</v>
+        <v>86.76417901045113</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>28.65984375049619</v>
+        <v>28.65984375049612</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.00200858760476</v>
+        <v>28.00200858760481</v>
       </c>
       <c r="C24">
-        <v>36.14964054695747</v>
+        <v>36.14964054695741</v>
       </c>
       <c r="D24">
-        <v>9.242265462640903</v>
+        <v>9.242265462640928</v>
       </c>
       <c r="E24">
-        <v>11.6856672577694</v>
+        <v>11.68566725776943</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>79.00839502159755</v>
+        <v>79.00839502159758</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>25.80369445461529</v>
+        <v>25.80369445461534</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.47079700134416</v>
+        <v>24.47079700134386</v>
       </c>
       <c r="C25">
-        <v>31.88394893059964</v>
+        <v>31.88394893059946</v>
       </c>
       <c r="D25">
-        <v>8.169840705237448</v>
+        <v>8.169840705237329</v>
       </c>
       <c r="E25">
-        <v>10.55065791607751</v>
+        <v>10.5506579160775</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.73863473314032</v>
+        <v>70.73863473313995</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>22.76616423610588</v>
+        <v>22.76616423610579</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.86173507211875</v>
+        <v>21.65910482276548</v>
       </c>
       <c r="C2">
-        <v>28.68556407460389</v>
+        <v>28.53098814242342</v>
       </c>
       <c r="D2">
-        <v>7.361752678286028</v>
+        <v>7.336950829421786</v>
       </c>
       <c r="E2">
-        <v>9.714898519544333</v>
+        <v>9.641436507929273</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.028312253161716</v>
       </c>
       <c r="H2">
-        <v>64.56030934878333</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>64.58372256912112</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,36 +445,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>20.48974580619277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>20.37033870068308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.0544259273324</v>
+        <v>19.8666070680115</v>
       </c>
       <c r="C3">
-        <v>26.4488010240053</v>
+        <v>26.3140597017273</v>
       </c>
       <c r="D3">
-        <v>6.794381762661512</v>
+        <v>6.772080132665932</v>
       </c>
       <c r="E3">
-        <v>9.142408747037464</v>
+        <v>9.064279995868647</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.050034236489435</v>
       </c>
       <c r="H3">
-        <v>60.26549872233171</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>60.32271433469787</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,36 +486,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>18.89706856225945</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>18.78492153214266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.91741859642544</v>
+        <v>18.73909997956432</v>
       </c>
       <c r="C4">
-        <v>25.0334125325354</v>
+        <v>24.91161119899328</v>
       </c>
       <c r="D4">
-        <v>6.434283420647978</v>
+        <v>6.41347960397627</v>
       </c>
       <c r="E4">
-        <v>8.786810873479881</v>
+        <v>8.705250383847165</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.063327361162902</v>
       </c>
       <c r="H4">
-        <v>57.56423470407912</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>57.64327904808834</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,36 +527,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>17.88844217904976</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>17.78063244321321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.4462421535418</v>
+        <v>18.27192914033163</v>
       </c>
       <c r="C5">
-        <v>24.4451287631458</v>
+        <v>24.32883317124833</v>
       </c>
       <c r="D5">
-        <v>6.284344081357313</v>
+        <v>6.26414586344647</v>
       </c>
       <c r="E5">
-        <v>8.640790371921595</v>
+        <v>8.557689550218177</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.068750732024728</v>
       </c>
       <c r="H5">
-        <v>56.44614191597036</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>56.53440472111426</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,36 +568,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>17.4689466003984</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>17.36288759316377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.36750516221017</v>
+        <v>18.19386630024875</v>
       </c>
       <c r="C6">
-        <v>24.34672594418394</v>
+        <v>24.23135983367876</v>
       </c>
       <c r="D6">
-        <v>6.259247208877639</v>
+        <v>6.239149377487274</v>
       </c>
       <c r="E6">
-        <v>8.616475387276404</v>
+        <v>8.533110234408973</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.069652116701163</v>
       </c>
       <c r="H6">
-        <v>56.25941214233266</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>56.34922661629479</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,36 +609,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>17.39875827039879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>17.29298929361583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.91109703613757</v>
+        <v>18.73283185538816</v>
       </c>
       <c r="C7">
-        <v>25.02552641258254</v>
+        <v>24.90379833518847</v>
       </c>
       <c r="D7">
-        <v>6.432274527037205</v>
+        <v>6.411478891660309</v>
       </c>
       <c r="E7">
-        <v>8.784846155617078</v>
+        <v>8.703265466561284</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.063400456078988</v>
       </c>
       <c r="H7">
-        <v>57.54922701757324</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>57.62839431117661</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,36 +650,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.8828199238144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>17.77503385121875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.24360344097108</v>
+        <v>21.04601581230527</v>
       </c>
       <c r="C8">
-        <v>27.92242178443169</v>
+        <v>27.77455176218285</v>
       </c>
       <c r="D8">
-        <v>7.168396457472835</v>
+        <v>7.14446757494453</v>
       </c>
       <c r="E8">
-        <v>9.518281178830327</v>
+        <v>9.443328146482742</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.035822653812581</v>
       </c>
       <c r="H8">
-        <v>63.09196315944773</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>63.1268426422441</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,36 +691,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>19.94647571476448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>19.82960614887431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.65621822466501</v>
+        <v>25.42232623101949</v>
       </c>
       <c r="C9">
-        <v>33.3243348444747</v>
+        <v>33.12925914214239</v>
       </c>
       <c r="D9">
-        <v>8.532626453764381</v>
+        <v>8.501968976280674</v>
       </c>
       <c r="E9">
-        <v>10.93190817442841</v>
+        <v>10.86537598323748</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.980404656590039</v>
       </c>
       <c r="H9">
-        <v>73.52935860897082</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>73.48303056448934</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,36 +732,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>23.79148852873486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>23.65499400975419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.90316918738998</v>
+        <v>28.64056606630839</v>
       </c>
       <c r="C10">
-        <v>37.22583624811089</v>
+        <v>36.99510964261619</v>
       </c>
       <c r="D10">
-        <v>9.51189516521069</v>
+        <v>9.475324850530715</v>
       </c>
       <c r="E10">
-        <v>11.97423183164746</v>
+        <v>11.91079423414141</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.937038318539367</v>
       </c>
       <c r="H10">
-        <v>81.09494120614788</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>80.9869667224778</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,36 +773,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>26.57068866710484</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>26.41682739616373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.41631568962192</v>
+        <v>30.13910839030266</v>
       </c>
       <c r="C11">
-        <v>39.02101655194512</v>
+        <v>38.77266553595805</v>
       </c>
       <c r="D11">
-        <v>9.9608088314556</v>
+        <v>9.921091163687597</v>
       </c>
       <c r="E11">
-        <v>12.45661385207569</v>
+        <v>12.39374385951222</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.916117809353473</v>
       </c>
       <c r="H11">
-        <v>84.57207028084109</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>84.43364353596751</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,36 +814,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>27.85090474137213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>27.68775340241232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.99888883284625</v>
+        <v>30.71577279549217</v>
       </c>
       <c r="C12">
-        <v>39.70812795571103</v>
+        <v>39.45273481899714</v>
       </c>
       <c r="D12">
-        <v>10.13234476187628</v>
+        <v>10.09133321531184</v>
       </c>
       <c r="E12">
-        <v>12.64144504835635</v>
+        <v>12.57864085525554</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.907947064562599</v>
       </c>
       <c r="H12">
-        <v>85.90126747029207</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>85.75068556152833</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,36 +855,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>28.34120946587151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>28.17422978689777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.87290591747893</v>
+        <v>30.59108272308994</v>
       </c>
       <c r="C13">
-        <v>39.5597314246298</v>
+        <v>39.30587494054148</v>
       </c>
       <c r="D13">
-        <v>10.09531157724456</v>
+        <v>10.05458403603108</v>
       </c>
       <c r="E13">
-        <v>12.60152179634202</v>
+        <v>12.53871072497526</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.909719402218646</v>
       </c>
       <c r="H13">
-        <v>85.61429484648883</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>85.46636457431516</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,36 +896,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>28.23530278848057</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>28.06916388241349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.46402088072718</v>
+        <v>30.18633626027821</v>
       </c>
       <c r="C14">
-        <v>39.07736749069413</v>
+        <v>38.82844576451713</v>
       </c>
       <c r="D14">
-        <v>9.974882793270478</v>
+        <v>9.935061004515147</v>
       </c>
       <c r="E14">
-        <v>12.47176951048459</v>
+        <v>12.40890815015679</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.915451131268652</v>
       </c>
       <c r="H14">
-        <v>84.68112073599546</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>84.54170860038339</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,36 +937,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>27.89110879295167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>27.7276495769425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.21497433373674</v>
+        <v>29.93976932250885</v>
       </c>
       <c r="C15">
-        <v>38.78301847938008</v>
+        <v>38.53706507583126</v>
       </c>
       <c r="D15">
-        <v>9.901355611294377</v>
+        <v>9.862073910638086</v>
       </c>
       <c r="E15">
-        <v>12.39261056514082</v>
+        <v>12.32969782354239</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.918926801689445</v>
       </c>
       <c r="H15">
-        <v>84.11142068317558</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>83.97713422078657</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,36 +978,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>27.68111554833174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>27.51925295191349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.80534556428822</v>
+        <v>28.54365420495076</v>
       </c>
       <c r="C16">
-        <v>37.10926450500259</v>
+        <v>36.87964903890872</v>
       </c>
       <c r="D16">
-        <v>9.482707603505041</v>
+        <v>9.446331094190844</v>
       </c>
       <c r="E16">
-        <v>11.94294737188349</v>
+        <v>11.8794537378871</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.938375575978923</v>
       </c>
       <c r="H16">
-        <v>80.86898372741739</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>80.76293026711636</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,36 +1019,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>26.48759270672066</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>26.33430245169629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.95246082777888</v>
+        <v>27.69857599837233</v>
       </c>
       <c r="C17">
-        <v>36.09031859725037</v>
+        <v>35.87027122715882</v>
       </c>
       <c r="D17">
-        <v>9.227391990361507</v>
+        <v>9.192660226418205</v>
       </c>
       <c r="E17">
-        <v>11.66977938125808</v>
+        <v>11.60569903453779</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.949954873442403</v>
       </c>
       <c r="H17">
-        <v>78.89335474310202</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>78.8038467266214</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,36 +1060,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>25.76142576933177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>25.61297661461816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.46496457144753</v>
+        <v>27.2154371509997</v>
       </c>
       <c r="C18">
-        <v>35.50582812221657</v>
+        <v>35.29116487136451</v>
       </c>
       <c r="D18">
-        <v>9.080784833818308</v>
+        <v>9.046958954321447</v>
       </c>
       <c r="E18">
-        <v>11.51335746923825</v>
+        <v>11.44886297717009</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.9565085948054</v>
       </c>
       <c r="H18">
-        <v>77.75979676269407</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>77.6796006323907</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,36 +1101,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>25.34500779024894</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>25.19922126824449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.30032419203228</v>
+        <v>27.05225289258668</v>
       </c>
       <c r="C19">
-        <v>35.30809300947168</v>
+        <v>35.09523607898571</v>
       </c>
       <c r="D19">
-        <v>9.031162090853581</v>
+        <v>8.997636853869913</v>
       </c>
       <c r="E19">
-        <v>11.4604917130583</v>
+        <v>11.39584443114005</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.958711206302808</v>
       </c>
       <c r="H19">
-        <v>77.37628869230953</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>77.29921664104373</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>25.20415157934728</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>25.05924814059983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.0429085315962</v>
+        <v>27.78820730409757</v>
       </c>
       <c r="C20">
-        <v>36.19859700885876</v>
+        <v>35.97754438255579</v>
       </c>
       <c r="D20">
-        <v>9.25453919134848</v>
+        <v>9.219636698278865</v>
       </c>
       <c r="E20">
-        <v>11.69878058356591</v>
+        <v>11.63477078155406</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.948733715983372</v>
       </c>
       <c r="H20">
-        <v>79.10333247417721</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>79.01208592568753</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,36 +1183,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>25.83857813115479</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>25.68962686246153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.58381654436777</v>
+        <v>30.30492827927739</v>
       </c>
       <c r="C21">
-        <v>39.21880706121336</v>
+        <v>38.96844763785084</v>
       </c>
       <c r="D21">
-        <v>10.01020335963707</v>
+        <v>9.970118691556872</v>
       </c>
       <c r="E21">
-        <v>12.5098122249557</v>
+        <v>12.446970003367</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.913775098357082</v>
       </c>
       <c r="H21">
-        <v>84.95480372920713</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>84.81290949149815</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,36 +1224,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>27.9920251051166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>27.82778842318894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.30380814580331</v>
+        <v>32.00675640643482</v>
       </c>
       <c r="C22">
-        <v>41.23886893667177</v>
+        <v>40.9670537291103</v>
       </c>
       <c r="D22">
-        <v>10.51390032917618</v>
+        <v>10.46979886373167</v>
       </c>
       <c r="E22">
-        <v>13.05329338398191</v>
+        <v>12.99031513306299</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.889416929415486</v>
       </c>
       <c r="H22">
-        <v>88.85783248766472</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>88.67894153698086</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,36 +1265,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>29.43415740121847</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>29.25801391820486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.37841498272993</v>
+        <v>31.09135117584551</v>
       </c>
       <c r="C23">
-        <v>40.15452799629912</v>
+        <v>39.8944567514306</v>
       </c>
       <c r="D23">
-        <v>10.24370044159396</v>
+        <v>10.20181871546579</v>
       </c>
       <c r="E23">
-        <v>12.76155015072742</v>
+        <v>12.69874183923419</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.902590008426909</v>
       </c>
       <c r="H23">
-        <v>86.76417901045113</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>86.60552726811159</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,36 +1306,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>28.65984375049612</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>28.49028639455503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.00200858760481</v>
+        <v>27.7476768502574</v>
       </c>
       <c r="C24">
-        <v>36.14964054695741</v>
+        <v>35.92904274940206</v>
       </c>
       <c r="D24">
-        <v>9.242265462640928</v>
+        <v>9.207440277462888</v>
       </c>
       <c r="E24">
-        <v>11.68566725776943</v>
+        <v>11.62162579998373</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.949286117894779</v>
       </c>
       <c r="H24">
-        <v>79.00839502159758</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>78.91793506879687</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,36 +1347,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>25.80369445461534</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>25.65497055989874</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.47079700134386</v>
+        <v>24.24681400983871</v>
       </c>
       <c r="C25">
-        <v>31.88394893059946</v>
+        <v>31.70151288877991</v>
       </c>
       <c r="D25">
-        <v>8.169840705237329</v>
+        <v>8.141115274437952</v>
       </c>
       <c r="E25">
-        <v>10.5506579160775</v>
+        <v>10.48235634982072</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.995699609378084</v>
       </c>
       <c r="H25">
-        <v>70.73863473313995</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>70.71413396589801</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>22.76616423610579</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>22.63532002077006</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.65910482276548</v>
+        <v>21.63825341516034</v>
       </c>
       <c r="C2">
-        <v>28.53098814242342</v>
+        <v>15.36904159891152</v>
       </c>
       <c r="D2">
-        <v>7.336950829421786</v>
+        <v>7.322956858032945</v>
       </c>
       <c r="E2">
-        <v>9.641436507929273</v>
+        <v>30.30047614743498</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.028312253161716</v>
+        <v>2.032037489280765</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64.58372256912112</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.26670459095007</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.37033870068308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>64.02714032240286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.8666070680115</v>
+        <v>19.91659790687924</v>
       </c>
       <c r="C3">
-        <v>26.3140597017273</v>
+        <v>14.1206380618628</v>
       </c>
       <c r="D3">
-        <v>6.772080132665932</v>
+        <v>6.768504373945411</v>
       </c>
       <c r="E3">
-        <v>9.064279995868647</v>
+        <v>27.88755598766346</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.050034236489435</v>
+        <v>2.051079435921255</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.32271433469787</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.74872994040732</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.78492153214266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>59.77247080532486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.73909997956432</v>
+        <v>18.82690433331558</v>
       </c>
       <c r="C4">
-        <v>24.91161119899328</v>
+        <v>13.33444774749079</v>
       </c>
       <c r="D4">
-        <v>6.41347960397627</v>
+        <v>6.4153359600256</v>
       </c>
       <c r="E4">
-        <v>8.705250383847165</v>
+        <v>26.3654159862704</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.063327361162902</v>
+        <v>2.06274971587291</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>57.64327904808834</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.78814545006332</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.78063244321321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>57.09885480597676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.27192914033163</v>
+        <v>18.37390642086553</v>
       </c>
       <c r="C5">
-        <v>24.32883317124833</v>
+        <v>13.00843792818907</v>
       </c>
       <c r="D5">
-        <v>6.26414586344647</v>
+        <v>6.268013609961311</v>
       </c>
       <c r="E5">
-        <v>8.557689550218177</v>
+        <v>25.73361230997273</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.068750732024728</v>
+        <v>2.067514416467812</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>56.53440472111426</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.38880413143843</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.36288759316377</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>55.9929246630293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.19386630024875</v>
+        <v>18.298127193086</v>
       </c>
       <c r="C6">
-        <v>24.23135983367876</v>
+        <v>12.95394609499855</v>
       </c>
       <c r="D6">
-        <v>6.239149377487274</v>
+        <v>6.243339928624458</v>
       </c>
       <c r="E6">
-        <v>8.533110234408973</v>
+        <v>25.62797170134087</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.069652116701163</v>
+        <v>2.068306510653716</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>56.34922661629479</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.32199798714139</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.29298929361583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>55.80827261981868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.73283185538816</v>
+        <v>18.82083213057943</v>
       </c>
       <c r="C7">
-        <v>24.90379833518847</v>
+        <v>13.33007469384312</v>
       </c>
       <c r="D7">
-        <v>6.411478891660309</v>
+        <v>6.413363145392706</v>
       </c>
       <c r="E7">
-        <v>8.703265466561284</v>
+        <v>26.35694348111635</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.063400456078988</v>
+        <v>2.062813920630269</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>57.62839431117661</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.7827926321043</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.77503385121875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>57.08400733960952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.04601581230527</v>
+        <v>21.05090026993195</v>
       </c>
       <c r="C8">
-        <v>27.77455176218285</v>
+        <v>14.94222442232486</v>
       </c>
       <c r="D8">
-        <v>7.14446757494453</v>
+        <v>7.134293085372187</v>
       </c>
       <c r="E8">
-        <v>9.443328146482742</v>
+        <v>29.47606545283944</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.035822653812581</v>
+        <v>2.038617067235097</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.1268426422441</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.74876129209369</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.82960614887431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>62.57209954755514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.42232623101949</v>
+        <v>25.20761804959679</v>
       </c>
       <c r="C9">
-        <v>33.12925914214239</v>
+        <v>17.98599276367604</v>
       </c>
       <c r="D9">
-        <v>8.501968976280674</v>
+        <v>8.45808785325884</v>
       </c>
       <c r="E9">
-        <v>10.86537598323748</v>
+        <v>35.34469407305453</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.980404656590039</v>
+        <v>1.990187357127055</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.48303056448934</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>22.41755091984243</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23.65499400975419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>72.91901062777879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.64056606630839</v>
+        <v>28.20749903034146</v>
       </c>
       <c r="C10">
-        <v>36.99510964261619</v>
+        <v>20.22111229160265</v>
       </c>
       <c r="D10">
-        <v>9.475324850530715</v>
+        <v>9.395769406534416</v>
       </c>
       <c r="E10">
-        <v>11.91079423414141</v>
+        <v>39.64370607840683</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.937038318539367</v>
+        <v>1.95251773007803</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>80.9869667224778</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>25.07247305516035</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>26.41682739616373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>80.41536484758231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.13910839030266</v>
+        <v>29.58631241329984</v>
       </c>
       <c r="C11">
-        <v>38.77266553595805</v>
+        <v>21.26109854109127</v>
       </c>
       <c r="D11">
-        <v>9.921091163687597</v>
+        <v>9.821192070374343</v>
       </c>
       <c r="E11">
-        <v>12.39374385951222</v>
+        <v>41.64365194700057</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.916117809353473</v>
+        <v>1.934432533856006</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>84.43364353596751</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.29556559544202</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>27.68775340241232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>83.85575922699103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.71577279549217</v>
+        <v>30.11365845822019</v>
       </c>
       <c r="C12">
-        <v>39.45273481899714</v>
+        <v>21.66115680962996</v>
       </c>
       <c r="D12">
-        <v>10.09133321531184</v>
+        <v>9.982904778480959</v>
       </c>
       <c r="E12">
-        <v>12.57864085525554</v>
+        <v>42.41329046372952</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.907947064562599</v>
+        <v>1.927386417068703</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>85.75068556152833</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.76389992233301</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>28.17422978689777</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>85.16963848628403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.59108272308994</v>
+        <v>29.99978871605438</v>
       </c>
       <c r="C13">
-        <v>39.30587494054148</v>
+        <v>21.57466106783112</v>
       </c>
       <c r="D13">
-        <v>10.05458403603108</v>
+        <v>9.948034192673431</v>
       </c>
       <c r="E13">
-        <v>12.53871072497526</v>
+        <v>42.24686660307216</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.909719402218646</v>
+        <v>1.928913948962672</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>85.46636457431516</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.66274571653251</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>28.06916388241349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>84.88604177996064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.18633626027821</v>
+        <v>29.62957023951567</v>
       </c>
       <c r="C14">
-        <v>38.82844576451713</v>
+        <v>21.29386589139875</v>
       </c>
       <c r="D14">
-        <v>9.935061004515147</v>
+        <v>9.834478475100727</v>
       </c>
       <c r="E14">
-        <v>12.40890815015679</v>
+        <v>41.70668128550067</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.915451131268652</v>
+        <v>1.933857242026922</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>84.54170860038339</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>26.33397090709416</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>27.7276495769425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>83.96358268876834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.93976932250885</v>
+        <v>29.40359561889065</v>
       </c>
       <c r="C15">
-        <v>38.53706507583126</v>
+        <v>21.12278818580741</v>
       </c>
       <c r="D15">
-        <v>9.862073910638086</v>
+        <v>9.765030238750642</v>
       </c>
       <c r="E15">
-        <v>12.32969782354239</v>
+        <v>41.37762135310582</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.918926801689445</v>
+        <v>1.936857198683551</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>83.97713422078657</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26.13336821103039</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>27.51925295191349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>83.40023729573643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.54365420495076</v>
+        <v>28.11792147349911</v>
       </c>
       <c r="C16">
-        <v>36.87964903890872</v>
+        <v>20.15383802973546</v>
       </c>
       <c r="D16">
-        <v>9.446331094190844</v>
+        <v>9.368004624364236</v>
       </c>
       <c r="E16">
-        <v>11.8794537378871</v>
+        <v>39.5143523719735</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.938375575978923</v>
+        <v>1.95367581136354</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>80.76293026711636</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>24.99307968271114</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>26.33430245169629</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>80.1916539900601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.69857599837233</v>
+        <v>27.33475266201376</v>
       </c>
       <c r="C17">
-        <v>35.87027122715882</v>
+        <v>19.56711585442182</v>
       </c>
       <c r="D17">
-        <v>9.192660226418205</v>
+        <v>9.124625408410392</v>
       </c>
       <c r="E17">
-        <v>11.60569903453779</v>
+        <v>38.38619464303805</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.949954873442403</v>
+        <v>1.963713427789509</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>78.8038467266214</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>24.29927758191324</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>25.61297661461816</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>78.23507955342413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.2154371509997</v>
+        <v>26.88538418673195</v>
       </c>
       <c r="C18">
-        <v>35.29116487136451</v>
+        <v>19.23161307175438</v>
       </c>
       <c r="D18">
-        <v>9.046958954321447</v>
+        <v>8.984474673760021</v>
       </c>
       <c r="E18">
-        <v>11.44886297717009</v>
+        <v>37.74102192165152</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.9565085948054</v>
+        <v>1.969402129024365</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>77.6796006323907</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>23.90144029658222</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>25.19922126824449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>77.11204009870787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.05225289258668</v>
+        <v>26.73334357730871</v>
       </c>
       <c r="C19">
-        <v>35.09523607898571</v>
+        <v>19.11828293335679</v>
       </c>
       <c r="D19">
-        <v>8.997636853869913</v>
+        <v>8.936974099986756</v>
       </c>
       <c r="E19">
-        <v>11.39584443114005</v>
+        <v>37.52306961678196</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.958711206302808</v>
+        <v>1.971315205251792</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>77.29921664104373</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.76687493809098</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>25.05924814059983</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>76.7320326513718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.78820730409757</v>
+        <v>27.41799009949947</v>
       </c>
       <c r="C20">
-        <v>35.97754438255579</v>
+        <v>19.62935245157924</v>
       </c>
       <c r="D20">
-        <v>9.219636698278865</v>
+        <v>9.150545878775615</v>
       </c>
       <c r="E20">
-        <v>11.63477078155406</v>
+        <v>38.50586876004392</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.948733715983372</v>
+        <v>1.962654042989442</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>79.01208592568753</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.37298966582759</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>25.68962686246153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>78.4430782741731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.30492827927739</v>
+        <v>29.73813920617125</v>
       </c>
       <c r="C21">
-        <v>38.96844763785084</v>
+        <v>21.37614417910038</v>
       </c>
       <c r="D21">
-        <v>9.970118691556872</v>
+        <v>9.867808234660934</v>
       </c>
       <c r="E21">
-        <v>12.446970003367</v>
+        <v>41.86495345017292</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.913775098357082</v>
+        <v>1.932411247013403</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>84.81290949149815</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>26.43037019261004</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>27.82778842318894</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>84.23416359945915</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.00675640643482</v>
+        <v>31.28742206950499</v>
       </c>
       <c r="C22">
-        <v>40.9670537291103</v>
+        <v>22.55642988649941</v>
       </c>
       <c r="D22">
-        <v>10.46979886373167</v>
+        <v>10.34076317482787</v>
       </c>
       <c r="E22">
-        <v>12.99031513306299</v>
+        <v>44.13683218874034</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.889416929415486</v>
+        <v>1.911445535207384</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>88.67894153698086</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.80749427589476</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>29.25801391820486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>88.13586506922714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.09135117584551</v>
+        <v>30.45611740822033</v>
       </c>
       <c r="C23">
-        <v>39.8944567514306</v>
+        <v>21.92166435939931</v>
       </c>
       <c r="D23">
-        <v>10.20181871546579</v>
+        <v>10.08761507714345</v>
       </c>
       <c r="E23">
-        <v>12.69874183923419</v>
+        <v>42.91461174047112</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.902590008426909</v>
+        <v>1.922772267499463</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>86.60552726811159</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>27.06820860384835</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>28.49028639455503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>86.02215476563099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.7476768502574</v>
+        <v>27.3803559171564</v>
       </c>
       <c r="C24">
-        <v>35.92904274940206</v>
+        <v>19.6012098450705</v>
       </c>
       <c r="D24">
-        <v>9.207440277462888</v>
+        <v>9.138828001107525</v>
       </c>
       <c r="E24">
-        <v>11.62162579998373</v>
+        <v>38.45175384943239</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.949286117894779</v>
+        <v>1.963133242188806</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78.91793506879687</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.33966140392529</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>25.65497055989874</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>78.34903684708453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.24681400983871</v>
+        <v>24.09947719822429</v>
       </c>
       <c r="C25">
-        <v>31.70151288877991</v>
+        <v>17.16899008709624</v>
       </c>
       <c r="D25">
-        <v>8.141115274437952</v>
+        <v>8.107829720843238</v>
       </c>
       <c r="E25">
-        <v>10.48235634982072</v>
+        <v>33.77160826102526</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.995699609378084</v>
+        <v>2.003524167086813</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.71413396589801</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.43858702875728</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.63532002077006</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>70.1520970294311</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.63825341516034</v>
+        <v>21.13671420305623</v>
       </c>
       <c r="C2">
-        <v>15.36904159891152</v>
+        <v>15.56984526221974</v>
       </c>
       <c r="D2">
-        <v>7.322956858032945</v>
+        <v>7.240173731202523</v>
       </c>
       <c r="E2">
-        <v>30.30047614743498</v>
+        <v>11.2624626412395</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.032037489280765</v>
+        <v>19.38685274371959</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.315480194547526</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.470992585036065</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.26670459095007</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18.35128195324217</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>64.02714032240286</v>
+        <v>11.90515498387228</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.91659790687924</v>
+        <v>19.81300297746338</v>
       </c>
       <c r="C3">
-        <v>14.1206380618628</v>
+        <v>14.66242465855843</v>
       </c>
       <c r="D3">
-        <v>6.768504373945411</v>
+        <v>6.739289517666888</v>
       </c>
       <c r="E3">
-        <v>27.88755598766346</v>
+        <v>10.70181886819841</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.051079435921255</v>
+        <v>18.56162882304987</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.341474446507955</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>9.77714354478921</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.74872994040732</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>17.17809754841752</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>59.77247080532486</v>
+        <v>11.75771827448479</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.82690433331558</v>
+        <v>18.95433092311948</v>
       </c>
       <c r="C4">
-        <v>13.33444774749079</v>
+        <v>14.0761986920321</v>
       </c>
       <c r="D4">
-        <v>6.4153359600256</v>
+        <v>6.414527975174048</v>
       </c>
       <c r="E4">
-        <v>26.3654159862704</v>
+        <v>10.3605567386137</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.06274971587291</v>
+        <v>18.07585172595768</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.365813714204045</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>9.978560368014168</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.78814545006332</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>16.41891330635786</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>57.09885480597676</v>
+        <v>11.68536538890935</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37390642086553</v>
+        <v>18.59288942373807</v>
       </c>
       <c r="C5">
-        <v>13.00843792818907</v>
+        <v>13.83007342589611</v>
       </c>
       <c r="D5">
-        <v>6.268013609961311</v>
+        <v>6.277820721904657</v>
       </c>
       <c r="E5">
-        <v>25.73361230997273</v>
+        <v>10.22242663259681</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.067514416467812</v>
+        <v>17.88344960623023</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.377735477298857</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>10.06380327886137</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.38880413143843</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>16.09974921314692</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>55.9929246630293</v>
+        <v>11.66029928092824</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.298127193086</v>
+        <v>18.53217716770297</v>
       </c>
       <c r="C6">
-        <v>12.95394609499855</v>
+        <v>13.78877034764466</v>
       </c>
       <c r="D6">
-        <v>6.243339928624458</v>
+        <v>6.254855983615395</v>
       </c>
       <c r="E6">
-        <v>25.62797170134087</v>
+        <v>10.19955279469156</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.068306510653716</v>
+        <v>17.85184540484673</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.379833075302471</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10.07814316917421</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.32199798714139</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>16.04616059941201</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>55.80827261981868</v>
+        <v>11.6563991200807</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.82083213057943</v>
+        <v>18.94950302441666</v>
       </c>
       <c r="C7">
-        <v>13.33007469384312</v>
+        <v>14.07290853004726</v>
       </c>
       <c r="D7">
-        <v>6.413363145392706</v>
+        <v>6.412702010131649</v>
       </c>
       <c r="E7">
-        <v>26.35694348111635</v>
+        <v>10.35868980710175</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.062813920630269</v>
+        <v>18.07323404266992</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.365966519601454</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>9.979697435652797</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.7827926321043</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>16.41464860706184</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>57.08400733960952</v>
+        <v>11.68500966364437</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.05090026993195</v>
+        <v>20.68983139654025</v>
       </c>
       <c r="C8">
-        <v>14.94222442232486</v>
+        <v>15.26303688417355</v>
       </c>
       <c r="D8">
-        <v>7.134293085372187</v>
+        <v>7.07102080732344</v>
       </c>
       <c r="E8">
-        <v>29.47606545283944</v>
+        <v>11.06864061141466</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.038617067235097</v>
+        <v>19.0981548097397</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.322641276149687</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.573624690544804</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.74876129209369</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>17.95481156346793</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>62.57209954755514</v>
+        <v>11.85046171819616</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.20761804959679</v>
+        <v>23.73856135249083</v>
       </c>
       <c r="C9">
-        <v>17.98599276367604</v>
+        <v>17.36414106013134</v>
       </c>
       <c r="D9">
-        <v>8.45808785325884</v>
+        <v>8.226999980129465</v>
       </c>
       <c r="E9">
-        <v>35.34469407305453</v>
+        <v>12.47758151509861</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.990187357127055</v>
+        <v>21.26103691524781</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.308847448863808</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>8.895451624797653</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.41755091984243</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>20.66867724313007</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>72.91901062777879</v>
+        <v>12.32483054992046</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.20749903034146</v>
+        <v>25.75800275296378</v>
       </c>
       <c r="C10">
-        <v>20.22111229160265</v>
+        <v>18.76453001899215</v>
       </c>
       <c r="D10">
-        <v>9.395769406534416</v>
+        <v>8.996334698363212</v>
       </c>
       <c r="E10">
-        <v>39.64370607840683</v>
+        <v>13.71820420527491</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.95251773007803</v>
+        <v>22.92750004981212</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.348532219229767</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>8.488319945142916</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.07247305516035</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>22.47926594416732</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>80.41536484758231</v>
+        <v>12.77105085872681</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.58631241329984</v>
+        <v>26.62940494134479</v>
       </c>
       <c r="C11">
-        <v>21.26109854109127</v>
+        <v>19.37051452673584</v>
       </c>
       <c r="D11">
-        <v>9.821192070374343</v>
+        <v>9.32949011567465</v>
       </c>
       <c r="E11">
-        <v>41.64365194700057</v>
+        <v>14.29581533106087</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.934432533856006</v>
+        <v>23.69971117577462</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.378773188955845</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>8.328125758489392</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.29556559544202</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>23.26413953220331</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>83.85575922699103</v>
+        <v>12.99621113652596</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.11365845822019</v>
+        <v>26.95264622383407</v>
       </c>
       <c r="C12">
-        <v>21.66115680962996</v>
+        <v>19.59553593121595</v>
       </c>
       <c r="D12">
-        <v>9.982904778480959</v>
+        <v>9.45327390099331</v>
       </c>
       <c r="E12">
-        <v>42.41329046372952</v>
+        <v>14.51225456559166</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.927386417068703</v>
+        <v>24.0038403921041</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.392087820811915</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>8.271580055012411</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.76389992233301</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>23.55586887399943</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>85.16963848628403</v>
+        <v>13.08471638438689</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.99978871605438</v>
+        <v>26.88332921517884</v>
       </c>
       <c r="C13">
-        <v>21.57466106783112</v>
+        <v>19.54727119365308</v>
       </c>
       <c r="D13">
-        <v>9.948034192673431</v>
+        <v>9.426719757794086</v>
       </c>
       <c r="E13">
-        <v>42.24686660307216</v>
+        <v>14.46574038716159</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.928913948962672</v>
+        <v>23.93485745081008</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.389135683675445</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>8.283566107526653</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.66274571653251</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>23.49328215194964</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>84.88604177996064</v>
+        <v>13.06551028610448</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.62957023951567</v>
+        <v>26.65613292561537</v>
       </c>
       <c r="C14">
-        <v>21.29386589139875</v>
+        <v>19.38911627174715</v>
       </c>
       <c r="D14">
-        <v>9.834478475100727</v>
+        <v>9.33972122249469</v>
       </c>
       <c r="E14">
-        <v>41.70668128550067</v>
+        <v>14.31366710929354</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.933857242026922</v>
+        <v>23.723885213921</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.379830629303553</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>8.323387992728442</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.33397090709416</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>23.28824965994566</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>83.96358268876834</v>
+        <v>13.00342728023118</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.40359561889065</v>
+        <v>26.51609269893531</v>
       </c>
       <c r="C15">
-        <v>21.12278818580741</v>
+        <v>19.29166267882447</v>
       </c>
       <c r="D15">
-        <v>9.765030238750642</v>
+        <v>9.286124148950654</v>
       </c>
       <c r="E15">
-        <v>41.37762135310582</v>
+        <v>14.2202232346788</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.936857198683551</v>
+        <v>23.59754639663308</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.374376875822819</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>8.348332703002573</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.13336821103039</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>23.16194984959644</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>83.40023729573643</v>
+        <v>12.96582321933688</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.11792147349911</v>
+        <v>25.70010823254292</v>
       </c>
       <c r="C16">
-        <v>20.15383802973546</v>
+        <v>18.72430350241586</v>
       </c>
       <c r="D16">
-        <v>9.368004624364236</v>
+        <v>8.974227450148172</v>
       </c>
       <c r="E16">
-        <v>39.5143523719735</v>
+        <v>13.68012919929532</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.95367581136354</v>
+        <v>22.87730268021076</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.346810642088733</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>8.499335194313987</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.99307968271114</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>22.42719988163854</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>80.1916539900601</v>
+        <v>12.75678714642686</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.33475266201376</v>
+        <v>25.18746205435952</v>
       </c>
       <c r="C17">
-        <v>19.56711585442182</v>
+        <v>18.36829876913523</v>
       </c>
       <c r="D17">
-        <v>9.124625408410392</v>
+        <v>8.778611603938495</v>
       </c>
       <c r="E17">
-        <v>38.38619464303805</v>
+        <v>13.34459862214445</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.963713427789509</v>
+        <v>22.43893715240505</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.33310051832883</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>8.598724886424943</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.29927758191324</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>21.96658492114955</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>78.23507955342413</v>
+        <v>12.63427153902628</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.88538418673195</v>
+        <v>24.88815007386646</v>
       </c>
       <c r="C18">
-        <v>19.23161307175438</v>
+        <v>18.16060918538912</v>
       </c>
       <c r="D18">
-        <v>8.984474673760021</v>
+        <v>8.664512753684644</v>
       </c>
       <c r="E18">
-        <v>37.74102192165152</v>
+        <v>13.15003302332952</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.969402129024365</v>
+        <v>22.1881381781817</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.326355533651564</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>8.658210228601067</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.90144029658222</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>21.69799590051775</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>77.11204009870787</v>
+        <v>12.56588853587575</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.73334357730871</v>
+        <v>24.78604211299989</v>
       </c>
       <c r="C19">
-        <v>19.11828293335679</v>
+        <v>18.08978641401859</v>
       </c>
       <c r="D19">
-        <v>8.936974099986756</v>
+        <v>8.625607187687255</v>
       </c>
       <c r="E19">
-        <v>37.52306961678196</v>
+        <v>13.08388259936198</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.971315205251792</v>
+        <v>22.10345768372674</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.32426431945271</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>8.678734510975872</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.76687493809098</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>21.60642586375358</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>76.7320326513718</v>
+        <v>12.54309143194323</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.41799009949947</v>
+        <v>25.2424944546653</v>
       </c>
       <c r="C20">
-        <v>19.62935245157924</v>
+        <v>18.40649874437822</v>
       </c>
       <c r="D20">
-        <v>9.150545878775615</v>
+        <v>8.799599058632774</v>
       </c>
       <c r="E20">
-        <v>38.50586876004392</v>
+        <v>13.38047895031994</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.962654042989442</v>
+        <v>22.48546491267488</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.334441118275908</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>8.587901126254586</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.37298966582759</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>22.01599587786477</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>78.4430782741731</v>
+        <v>12.64709734370615</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.73813920617125</v>
+        <v>26.72304841753998</v>
       </c>
       <c r="C21">
-        <v>21.37614417910038</v>
+        <v>19.43569085663398</v>
       </c>
       <c r="D21">
-        <v>9.867808234660934</v>
+        <v>9.365338898709325</v>
       </c>
       <c r="E21">
-        <v>41.86495345017292</v>
+        <v>14.35839588938679</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.932411247013403</v>
+        <v>23.78453282780418</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.382512318324196</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>8.311575143756226</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.43037019261004</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>23.34862077092534</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>84.23416359945915</v>
+        <v>13.02157421289332</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.28742206950499</v>
+        <v>27.65142291571395</v>
       </c>
       <c r="C22">
-        <v>22.55642988649941</v>
+        <v>20.08239318595848</v>
       </c>
       <c r="D22">
-        <v>10.34076317482787</v>
+        <v>9.72126138120603</v>
       </c>
       <c r="E22">
-        <v>44.13683218874034</v>
+        <v>14.98424082726464</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.911445535207384</v>
+        <v>24.70871309028289</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.424838348527383</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>8.155263026091623</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.80749427589476</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>24.18764517772791</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>88.13586506922714</v>
+        <v>13.28522997465123</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.45611740822033</v>
+        <v>27.15950319492287</v>
       </c>
       <c r="C23">
-        <v>21.92166435939931</v>
+        <v>19.73960141696648</v>
       </c>
       <c r="D23">
-        <v>10.08761507714345</v>
+        <v>9.532548541099418</v>
       </c>
       <c r="E23">
-        <v>42.91461174047112</v>
+        <v>14.65138958709701</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.922772267499463</v>
+        <v>24.21071271358831</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.401214124711082</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>8.236278502908561</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.06820860384835</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>23.74273052347366</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>86.02215476563099</v>
+        <v>13.14276664649918</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.3803559171564</v>
+        <v>25.21762859137101</v>
       </c>
       <c r="C24">
-        <v>19.6012098450705</v>
+        <v>18.38923793607366</v>
       </c>
       <c r="D24">
-        <v>9.138828001107525</v>
+        <v>8.790115731575279</v>
       </c>
       <c r="E24">
-        <v>38.45175384943239</v>
+        <v>13.36426264674728</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.963133242188806</v>
+        <v>22.46442588851162</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.333831499470622</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>8.592787282920526</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.33966140392529</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>21.99366895038464</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>78.34903684708453</v>
+        <v>12.64129240741148</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.09947719822429</v>
+        <v>22.9526721151763</v>
       </c>
       <c r="C25">
-        <v>17.16899008709624</v>
+        <v>16.82086274341986</v>
       </c>
       <c r="D25">
-        <v>8.107829720843238</v>
+        <v>7.928492398444908</v>
       </c>
       <c r="E25">
-        <v>33.77160826102526</v>
+        <v>12.0954719665452</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.003524167086813</v>
+        <v>20.66127736799601</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.304296069642207</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>9.064485240105865</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.43858702875728</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>19.96698987310622</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>70.1520970294311</v>
+        <v>12.1797224422127</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.13671420305623</v>
+        <v>12.45200502670175</v>
       </c>
       <c r="C2">
-        <v>15.56984526221974</v>
+        <v>9.545637825307402</v>
       </c>
       <c r="D2">
-        <v>7.240173731202523</v>
+        <v>5.961665458861129</v>
       </c>
       <c r="E2">
-        <v>11.2624626412395</v>
+        <v>11.65020442559076</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>19.38685274371959</v>
+        <v>20.77794550640796</v>
       </c>
       <c r="H2">
-        <v>7.315480194547526</v>
+        <v>12.12517691608559</v>
       </c>
       <c r="I2">
-        <v>9.470992585036065</v>
+        <v>16.68176608603568</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.35128195324217</v>
+        <v>14.43847468672994</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.90515498387228</v>
+        <v>17.40208327527908</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.81300297746338</v>
+        <v>11.75953280826774</v>
       </c>
       <c r="C3">
-        <v>14.66242465855843</v>
+        <v>9.059483628876681</v>
       </c>
       <c r="D3">
-        <v>6.739289517666888</v>
+        <v>5.838380972306253</v>
       </c>
       <c r="E3">
-        <v>10.70181886819841</v>
+        <v>11.59103848945659</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>18.56162882304987</v>
+        <v>20.75410458154744</v>
       </c>
       <c r="H3">
-        <v>7.341474446507955</v>
+        <v>12.17900810912763</v>
       </c>
       <c r="I3">
-        <v>9.77714354478921</v>
+        <v>16.81902821451002</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.17809754841752</v>
+        <v>14.10383819417179</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.75771827448479</v>
+        <v>17.47408869764488</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.95433092311948</v>
+        <v>11.31237687855554</v>
       </c>
       <c r="C4">
-        <v>14.0761986920321</v>
+        <v>8.745855238147488</v>
       </c>
       <c r="D4">
-        <v>6.414527975174048</v>
+        <v>5.763126903305853</v>
       </c>
       <c r="E4">
-        <v>10.3605567386137</v>
+        <v>11.56003877484673</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>18.07585172595768</v>
+        <v>20.7516498165664</v>
       </c>
       <c r="H4">
-        <v>7.365813714204045</v>
+        <v>12.21493039547988</v>
       </c>
       <c r="I4">
-        <v>9.978560368014168</v>
+        <v>16.90826100312615</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.41891330635786</v>
+        <v>13.89682104021401</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.68536538890935</v>
+        <v>17.52433188094259</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.59288942373807</v>
+        <v>11.12476315751048</v>
       </c>
       <c r="C5">
-        <v>13.83007342589611</v>
+        <v>8.614335992735315</v>
       </c>
       <c r="D5">
-        <v>6.277820721904657</v>
+        <v>5.732620069700396</v>
       </c>
       <c r="E5">
-        <v>10.22242663259681</v>
+        <v>11.5487539422179</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>17.88344960623023</v>
+        <v>20.75370249919656</v>
       </c>
       <c r="H5">
-        <v>7.377735477298857</v>
+        <v>12.23028889790592</v>
       </c>
       <c r="I5">
-        <v>10.06380327886137</v>
+        <v>16.94586876144686</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.09974921314692</v>
+        <v>13.81219183620578</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.66029928092824</v>
+        <v>17.54631438778335</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.53217716770297</v>
+        <v>11.09328866222862</v>
       </c>
       <c r="C6">
-        <v>13.78877034764466</v>
+        <v>8.592276060601147</v>
       </c>
       <c r="D6">
-        <v>6.254855983615395</v>
+        <v>5.72756551200774</v>
       </c>
       <c r="E6">
-        <v>10.19955279469156</v>
+        <v>11.54696168430116</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>17.85184540484673</v>
+        <v>20.75422732649898</v>
       </c>
       <c r="H6">
-        <v>7.379833075302471</v>
+        <v>12.23288259366086</v>
       </c>
       <c r="I6">
-        <v>10.07814316917421</v>
+        <v>16.95218865309666</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.04616059941201</v>
+        <v>13.79812666908578</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.6563991200807</v>
+        <v>17.55005538574761</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.94950302441666</v>
+        <v>11.30986829996507</v>
       </c>
       <c r="C7">
-        <v>14.07290853004726</v>
+        <v>8.744096425041308</v>
       </c>
       <c r="D7">
-        <v>6.412702010131649</v>
+        <v>5.762714765983187</v>
       </c>
       <c r="E7">
-        <v>10.35868980710175</v>
+        <v>11.55988111809642</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>18.07323404266992</v>
+        <v>20.75166515621481</v>
       </c>
       <c r="H7">
-        <v>7.365966519601454</v>
+        <v>12.21513461316498</v>
       </c>
       <c r="I7">
-        <v>9.979697435652797</v>
+        <v>16.9087631559654</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.41464860706184</v>
+        <v>13.89568062267203</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.68500966364437</v>
+        <v>17.52462225062184</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.68983139654025</v>
+        <v>12.2178723399714</v>
       </c>
       <c r="C8">
-        <v>15.26303688417355</v>
+        <v>9.381200923834058</v>
       </c>
       <c r="D8">
-        <v>7.07102080732344</v>
+        <v>5.919093796701369</v>
       </c>
       <c r="E8">
-        <v>11.06864061141466</v>
+        <v>11.62870372559609</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>19.0981548097397</v>
+        <v>20.76719164654418</v>
       </c>
       <c r="H8">
-        <v>7.322641276149687</v>
+        <v>12.14314126237665</v>
       </c>
       <c r="I8">
-        <v>9.573624690544804</v>
+        <v>16.72806546450873</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.95481156346793</v>
+        <v>14.32348496103234</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.85046171819616</v>
+        <v>17.42565377121143</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.73856135249083</v>
+        <v>13.81958544903858</v>
       </c>
       <c r="C9">
-        <v>17.36414106013134</v>
+        <v>10.50734608585027</v>
       </c>
       <c r="D9">
-        <v>8.226999980129465</v>
+        <v>6.227188997711079</v>
       </c>
       <c r="E9">
-        <v>12.47758151509861</v>
+        <v>11.80545701758506</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>21.26103691524781</v>
+        <v>20.89452249513073</v>
       </c>
       <c r="H9">
-        <v>7.308847448863808</v>
+        <v>12.0248096041831</v>
       </c>
       <c r="I9">
-        <v>8.895451624797653</v>
+        <v>16.41306105520731</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.66867724313007</v>
+        <v>15.14503066546561</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.32483054992046</v>
+        <v>17.27980750729611</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.75800275296378</v>
+        <v>14.88271011773838</v>
       </c>
       <c r="C10">
-        <v>18.76453001899215</v>
+        <v>11.2562887167191</v>
       </c>
       <c r="D10">
-        <v>8.996334698363212</v>
+        <v>6.45173501302622</v>
       </c>
       <c r="E10">
-        <v>13.71820420527491</v>
+        <v>11.95995374227366</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>22.92750004981212</v>
+        <v>21.04703960877555</v>
       </c>
       <c r="H10">
-        <v>7.348532219229767</v>
+        <v>11.95190456480763</v>
       </c>
       <c r="I10">
-        <v>8.488319945142916</v>
+        <v>16.20567217303338</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.47926594416732</v>
+        <v>15.73161841974233</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.77105085872681</v>
+        <v>17.20254272075706</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.62940494134479</v>
+        <v>15.34102974132382</v>
       </c>
       <c r="C11">
-        <v>19.37051452673584</v>
+        <v>11.57948718242632</v>
       </c>
       <c r="D11">
-        <v>9.32949011567465</v>
+        <v>6.552961231042524</v>
       </c>
       <c r="E11">
-        <v>14.29581533106087</v>
+        <v>12.03535502324321</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>23.69971117577462</v>
+        <v>21.1290900965726</v>
       </c>
       <c r="H11">
-        <v>7.378773188955845</v>
+        <v>11.92180776706924</v>
       </c>
       <c r="I11">
-        <v>8.328125758489392</v>
+        <v>16.11656277979843</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.26413953220331</v>
+        <v>15.99355211437488</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.99621113652596</v>
+        <v>17.17397833176275</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.95264622383407</v>
+        <v>15.51090712242015</v>
       </c>
       <c r="C12">
-        <v>19.59553593121595</v>
+        <v>11.69932809685092</v>
       </c>
       <c r="D12">
-        <v>9.45327390099331</v>
+        <v>6.591119241447887</v>
       </c>
       <c r="E12">
-        <v>14.51225456559166</v>
+        <v>12.06462083622793</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>24.0038403921041</v>
+        <v>21.16196252437699</v>
       </c>
       <c r="H12">
-        <v>7.392087820811915</v>
+        <v>11.91085394672758</v>
       </c>
       <c r="I12">
-        <v>8.271580055012411</v>
+        <v>16.08357367090982</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.55586887399943</v>
+        <v>16.09194067770742</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.08471638438689</v>
+        <v>17.16411558129834</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.88332921517884</v>
+        <v>15.4744851165503</v>
       </c>
       <c r="C13">
-        <v>19.54727119365308</v>
+        <v>11.67363192506541</v>
       </c>
       <c r="D13">
-        <v>9.426719757794086</v>
+        <v>6.582909615135469</v>
       </c>
       <c r="E13">
-        <v>14.46574038716159</v>
+        <v>12.05828660122183</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>23.93485745081008</v>
+        <v>21.15480310613198</v>
       </c>
       <c r="H13">
-        <v>7.389135683675445</v>
+        <v>11.91319330554951</v>
       </c>
       <c r="I13">
-        <v>8.283566107526653</v>
+        <v>16.090644863847</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.49328215194964</v>
+        <v>16.07078794846697</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.06551028610448</v>
+        <v>17.1661971637304</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.65613292561537</v>
+        <v>15.35507956901145</v>
       </c>
       <c r="C14">
-        <v>19.38911627174715</v>
+        <v>11.58939777174285</v>
       </c>
       <c r="D14">
-        <v>9.33972122249469</v>
+        <v>6.556104234207076</v>
       </c>
       <c r="E14">
-        <v>14.31366710929354</v>
+        <v>12.03774859038798</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>23.723885213921</v>
+        <v>21.131758556979</v>
       </c>
       <c r="H14">
-        <v>7.379830629303553</v>
+        <v>11.92089769622295</v>
       </c>
       <c r="I14">
-        <v>8.323387992728442</v>
+        <v>16.11383360765866</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.28824965994566</v>
+        <v>16.00166314968356</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.00342728023118</v>
+        <v>17.17314775893978</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.51609269893531</v>
+        <v>15.28146017893926</v>
       </c>
       <c r="C15">
-        <v>19.29166267882447</v>
+        <v>11.53746938245318</v>
       </c>
       <c r="D15">
-        <v>9.286124148950654</v>
+        <v>6.539661287080397</v>
       </c>
       <c r="E15">
-        <v>14.2202232346788</v>
+        <v>12.02526059257817</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>23.59754639663308</v>
+        <v>21.11787704829203</v>
       </c>
       <c r="H15">
-        <v>7.374376875822819</v>
+        <v>11.92567463263043</v>
       </c>
       <c r="I15">
-        <v>8.348332703002573</v>
+        <v>16.12813573364011</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.16194984959644</v>
+        <v>15.9592153476878</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.96582321933688</v>
+        <v>17.17752963910448</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.70010823254292</v>
+        <v>14.85224507496684</v>
       </c>
       <c r="C16">
-        <v>18.72430350241586</v>
+        <v>11.23481199915265</v>
       </c>
       <c r="D16">
-        <v>8.974227450148172</v>
+        <v>6.445097486719845</v>
       </c>
       <c r="E16">
-        <v>13.68012919929532</v>
+        <v>11.95512717640861</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>22.87730268021076</v>
+        <v>21.04193075834505</v>
       </c>
       <c r="H16">
-        <v>7.346810642088733</v>
+        <v>11.9539333699766</v>
       </c>
       <c r="I16">
-        <v>8.499335194313987</v>
+        <v>16.2116011642288</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.42719988163854</v>
+        <v>15.71439345525602</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.75678714642686</v>
+        <v>17.20454258229793</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.18746205435952</v>
+        <v>14.58242351761402</v>
       </c>
       <c r="C17">
-        <v>18.36829876913523</v>
+        <v>11.04463520326842</v>
       </c>
       <c r="D17">
-        <v>8.778611603938495</v>
+        <v>6.386819321025457</v>
       </c>
       <c r="E17">
-        <v>13.34459862214445</v>
+        <v>11.91339805104934</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>22.43893715240505</v>
+        <v>20.99857251275006</v>
       </c>
       <c r="H17">
-        <v>7.33310051832883</v>
+        <v>11.97205642365266</v>
       </c>
       <c r="I17">
-        <v>8.598724886424943</v>
+        <v>16.26414627320821</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.96658492114955</v>
+        <v>15.56287678235235</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.63427153902628</v>
+        <v>17.22280570967702</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.88815007386646</v>
+        <v>14.42484951180465</v>
       </c>
       <c r="C18">
-        <v>18.16060918538912</v>
+        <v>10.93360478031482</v>
       </c>
       <c r="D18">
-        <v>8.664512753684644</v>
+        <v>6.353214927589508</v>
       </c>
       <c r="E18">
-        <v>13.15003302332952</v>
+        <v>11.88988000616639</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>22.1881381781817</v>
+        <v>20.97482808312922</v>
       </c>
       <c r="H18">
-        <v>7.326355533651564</v>
+        <v>11.98276898738982</v>
       </c>
       <c r="I18">
-        <v>8.658210228601067</v>
+        <v>16.29486122733162</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.69799590051775</v>
+        <v>15.47527162536438</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.56588853587575</v>
+        <v>17.23392947035048</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.78604211299989</v>
+        <v>14.37109031857941</v>
       </c>
       <c r="C19">
-        <v>18.08978641401859</v>
+        <v>10.89573018582882</v>
       </c>
       <c r="D19">
-        <v>8.625607187687255</v>
+        <v>6.341823884983209</v>
       </c>
       <c r="E19">
-        <v>13.08388259936198</v>
+        <v>11.88200090705901</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>22.10345768372674</v>
+        <v>20.96699424049186</v>
       </c>
       <c r="H19">
-        <v>7.32426431945271</v>
+        <v>11.98644559434544</v>
       </c>
       <c r="I19">
-        <v>8.678734510975872</v>
+        <v>16.30534528852403</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.60642586375358</v>
+        <v>15.44553456097942</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.54309143194323</v>
+        <v>17.23780192012025</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.2424944546653</v>
+        <v>14.61139310332031</v>
       </c>
       <c r="C20">
-        <v>18.40649874437822</v>
+        <v>11.06505042418351</v>
       </c>
       <c r="D20">
-        <v>8.799599058632774</v>
+        <v>6.393032169700414</v>
       </c>
       <c r="E20">
-        <v>13.38047895031994</v>
+        <v>11.91779031498226</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>22.48546491267488</v>
+        <v>21.00306461788384</v>
       </c>
       <c r="H20">
-        <v>7.334441118275908</v>
+        <v>11.97009730360634</v>
       </c>
       <c r="I20">
-        <v>8.587901126254586</v>
+        <v>16.25850177995846</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.01599587786477</v>
+        <v>15.57905397051218</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.64709734370615</v>
+        <v>17.22079742007726</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.72304841753998</v>
+        <v>15.39025197149862</v>
       </c>
       <c r="C21">
-        <v>19.43569085663398</v>
+        <v>11.61420873084959</v>
       </c>
       <c r="D21">
-        <v>9.365338898709325</v>
+        <v>6.563982671349586</v>
       </c>
       <c r="E21">
-        <v>14.35839588938679</v>
+        <v>12.0437619471506</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>23.78453282780418</v>
+        <v>21.13847858957386</v>
       </c>
       <c r="H21">
-        <v>7.382512318324196</v>
+        <v>11.91862268619288</v>
       </c>
       <c r="I21">
-        <v>8.311575143756226</v>
+        <v>16.10700201107176</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.34862077092534</v>
+        <v>16.02198920800327</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.02157421289332</v>
+        <v>17.17108025531162</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.65142291571395</v>
+        <v>15.87782925075119</v>
       </c>
       <c r="C22">
-        <v>20.08239318595848</v>
+        <v>11.95825790586714</v>
       </c>
       <c r="D22">
-        <v>9.72126138120603</v>
+        <v>6.674675976744974</v>
       </c>
       <c r="E22">
-        <v>14.98424082726464</v>
+        <v>12.13023535254203</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>24.70871309028289</v>
+        <v>21.23746801238928</v>
       </c>
       <c r="H22">
-        <v>7.424838348527383</v>
+        <v>11.8875651777201</v>
       </c>
       <c r="I22">
-        <v>8.155263026091623</v>
+        <v>16.01238818931243</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.18764517772791</v>
+        <v>16.30677096815672</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.28522997465123</v>
+        <v>17.1441506241836</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.15950319492287</v>
+        <v>15.61957370546807</v>
       </c>
       <c r="C23">
-        <v>19.73960141696648</v>
+        <v>11.77600034911168</v>
       </c>
       <c r="D23">
-        <v>9.532548541099418</v>
+        <v>6.615704512758569</v>
       </c>
       <c r="E23">
-        <v>14.65138958709701</v>
+        <v>12.08371191506409</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>24.21071271358831</v>
+        <v>21.18368381968487</v>
       </c>
       <c r="H23">
-        <v>7.401214124711082</v>
+        <v>11.90390405036578</v>
       </c>
       <c r="I23">
-        <v>8.236278502908561</v>
+        <v>16.06248198567041</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.74273052347366</v>
+        <v>16.15523714509209</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.14276664649918</v>
+        <v>17.15801217060283</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.21762859137101</v>
+        <v>14.59830358170995</v>
       </c>
       <c r="C24">
-        <v>18.38923793607366</v>
+        <v>11.0558259807798</v>
       </c>
       <c r="D24">
-        <v>8.790115731575279</v>
+        <v>6.390223647550605</v>
       </c>
       <c r="E24">
-        <v>13.36426264674728</v>
+        <v>11.9158030986554</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>22.46442588851162</v>
+        <v>21.00103005131505</v>
       </c>
       <c r="H24">
-        <v>7.333831499470622</v>
+        <v>11.97098210804646</v>
       </c>
       <c r="I24">
-        <v>8.592787282920526</v>
+        <v>16.26105207909185</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.99366895038464</v>
+        <v>15.57174180206741</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.64129240741148</v>
+        <v>17.22170342446033</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9526721151763</v>
+        <v>13.40597373161038</v>
       </c>
       <c r="C25">
-        <v>16.82086274341986</v>
+        <v>10.2162730341465</v>
       </c>
       <c r="D25">
-        <v>7.928492398444908</v>
+        <v>6.143971464634494</v>
       </c>
       <c r="E25">
-        <v>12.0954719665452</v>
+        <v>11.75324296715695</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>20.66127736799601</v>
+        <v>20.8496920468704</v>
       </c>
       <c r="H25">
-        <v>7.304296069642207</v>
+        <v>12.05436463935812</v>
       </c>
       <c r="I25">
-        <v>9.064485240105865</v>
+        <v>16.4940605171451</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.96698987310622</v>
+        <v>14.92532700853111</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.1797224422127</v>
+        <v>17.31404760726798</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.45200502670175</v>
+        <v>21.13671420305628</v>
       </c>
       <c r="C2">
-        <v>9.545637825307402</v>
+        <v>15.56984526221971</v>
       </c>
       <c r="D2">
-        <v>5.961665458861129</v>
+        <v>7.240173731202511</v>
       </c>
       <c r="E2">
-        <v>11.65020442559076</v>
+        <v>11.26246264123949</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20.77794550640796</v>
+        <v>19.38685274371961</v>
       </c>
       <c r="H2">
-        <v>12.12517691608559</v>
+        <v>7.315480194547548</v>
       </c>
       <c r="I2">
-        <v>16.68176608603568</v>
+        <v>9.470992585035997</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.43847468672994</v>
+        <v>18.35128195324221</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.40208327527908</v>
+        <v>11.90515498387228</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.75953280826774</v>
+        <v>19.81300297746344</v>
       </c>
       <c r="C3">
-        <v>9.059483628876681</v>
+        <v>14.6624246585584</v>
       </c>
       <c r="D3">
-        <v>5.838380972306253</v>
+        <v>6.739289517666854</v>
       </c>
       <c r="E3">
-        <v>11.59103848945659</v>
+        <v>10.7018188681984</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>20.75410458154744</v>
+        <v>18.56162882304982</v>
       </c>
       <c r="H3">
-        <v>12.17900810912763</v>
+        <v>7.341474446507805</v>
       </c>
       <c r="I3">
-        <v>16.81902821451002</v>
+        <v>9.777143544789043</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.10383819417179</v>
+        <v>17.17809754841756</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.47408869764488</v>
+        <v>11.75771827448466</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.31237687855554</v>
+        <v>18.9543309231195</v>
       </c>
       <c r="C4">
-        <v>8.745855238147488</v>
+        <v>14.07619869203197</v>
       </c>
       <c r="D4">
-        <v>5.763126903305853</v>
+        <v>6.414527975174013</v>
       </c>
       <c r="E4">
-        <v>11.56003877484673</v>
+        <v>10.36055673861371</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>20.7516498165664</v>
+        <v>18.07585172595774</v>
       </c>
       <c r="H4">
-        <v>12.21493039547988</v>
+        <v>7.365813714204003</v>
       </c>
       <c r="I4">
-        <v>16.90826100312615</v>
+        <v>9.978560368014154</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.89682104021401</v>
+        <v>16.41891330635784</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.52433188094259</v>
+        <v>11.68536538890935</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.12476315751048</v>
+        <v>18.5928894237381</v>
       </c>
       <c r="C5">
-        <v>8.614335992735315</v>
+        <v>13.83007342589591</v>
       </c>
       <c r="D5">
-        <v>5.732620069700396</v>
+        <v>6.277820721904651</v>
       </c>
       <c r="E5">
-        <v>11.5487539422179</v>
+        <v>10.22242663259678</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>20.75370249919656</v>
+        <v>17.88344960623018</v>
       </c>
       <c r="H5">
-        <v>12.23028889790592</v>
+        <v>7.377735477298914</v>
       </c>
       <c r="I5">
-        <v>16.94586876144686</v>
+        <v>10.06380327886128</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.81219183620578</v>
+        <v>16.0997492131469</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.54631438778335</v>
+        <v>11.66029928092824</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.09328866222862</v>
+        <v>18.53217716770292</v>
       </c>
       <c r="C6">
-        <v>8.592276060601147</v>
+        <v>13.78877034764455</v>
       </c>
       <c r="D6">
-        <v>5.72756551200774</v>
+        <v>6.254855983615452</v>
       </c>
       <c r="E6">
-        <v>11.54696168430116</v>
+        <v>10.19955279469157</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>20.75422732649898</v>
+        <v>17.85184540484688</v>
       </c>
       <c r="H6">
-        <v>12.23288259366086</v>
+        <v>7.37983307530248</v>
       </c>
       <c r="I6">
-        <v>16.95218865309666</v>
+        <v>10.07814316917426</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.79812666908578</v>
+        <v>16.04616059941199</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.55005538574761</v>
+        <v>11.65639912008078</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.30986829996507</v>
+        <v>18.94950302441666</v>
       </c>
       <c r="C7">
-        <v>8.744096425041308</v>
+        <v>14.0729085300473</v>
       </c>
       <c r="D7">
-        <v>5.762714765983187</v>
+        <v>6.412702010131595</v>
       </c>
       <c r="E7">
-        <v>11.55988111809642</v>
+        <v>10.35868980710175</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>20.75166515621481</v>
+        <v>18.07323404267017</v>
       </c>
       <c r="H7">
-        <v>12.21513461316498</v>
+        <v>7.365966519601471</v>
       </c>
       <c r="I7">
-        <v>16.9087631559654</v>
+        <v>9.979697435652964</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.89568062267203</v>
+        <v>16.41464860706187</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.52462225062184</v>
+        <v>11.68500966364451</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.2178723399714</v>
+        <v>20.68983139654029</v>
       </c>
       <c r="C8">
-        <v>9.381200923834058</v>
+        <v>15.26303688417348</v>
       </c>
       <c r="D8">
-        <v>5.919093796701369</v>
+        <v>7.07102080732343</v>
       </c>
       <c r="E8">
-        <v>11.62870372559609</v>
+        <v>11.06864061141462</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>20.76719164654418</v>
+        <v>19.09815480973974</v>
       </c>
       <c r="H8">
-        <v>12.14314126237665</v>
+        <v>7.322641276149587</v>
       </c>
       <c r="I8">
-        <v>16.72806546450873</v>
+        <v>9.573624690544722</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.32348496103234</v>
+        <v>17.95481156346796</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.42565377121143</v>
+        <v>11.85046171819613</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.81958544903858</v>
+        <v>23.73856135249085</v>
       </c>
       <c r="C9">
-        <v>10.50734608585027</v>
+        <v>17.36414106013129</v>
       </c>
       <c r="D9">
-        <v>6.227188997711079</v>
+        <v>8.226999980129472</v>
       </c>
       <c r="E9">
-        <v>11.80545701758506</v>
+        <v>12.47758151509858</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>20.89452249513073</v>
+        <v>21.26103691524781</v>
       </c>
       <c r="H9">
-        <v>12.0248096041831</v>
+        <v>7.308847448863773</v>
       </c>
       <c r="I9">
-        <v>16.41306105520731</v>
+        <v>8.895451624797595</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.14503066546561</v>
+        <v>20.66867724313008</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.27980750729611</v>
+        <v>12.32483054992047</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.88271011773838</v>
+        <v>25.75800275296382</v>
       </c>
       <c r="C10">
-        <v>11.2562887167191</v>
+        <v>18.7645300189921</v>
       </c>
       <c r="D10">
-        <v>6.45173501302622</v>
+        <v>8.996334698363242</v>
       </c>
       <c r="E10">
-        <v>11.95995374227366</v>
+        <v>13.71820420527488</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>21.04703960877555</v>
+        <v>22.92750004981216</v>
       </c>
       <c r="H10">
-        <v>11.95190456480763</v>
+        <v>7.348532219229788</v>
       </c>
       <c r="I10">
-        <v>16.20567217303338</v>
+        <v>8.488319945142898</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.73161841974233</v>
+        <v>22.47926594416733</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.20254272075706</v>
+        <v>12.77105085872683</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.34102974132382</v>
+        <v>26.62940494134481</v>
       </c>
       <c r="C11">
-        <v>11.57948718242632</v>
+        <v>19.37051452673593</v>
       </c>
       <c r="D11">
-        <v>6.552961231042524</v>
+        <v>9.329490115674705</v>
       </c>
       <c r="E11">
-        <v>12.03535502324321</v>
+        <v>14.29581533106088</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>21.1290900965726</v>
+        <v>23.69971117577457</v>
       </c>
       <c r="H11">
-        <v>11.92180776706924</v>
+        <v>7.378773188955767</v>
       </c>
       <c r="I11">
-        <v>16.11656277979843</v>
+        <v>8.328125758489326</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.99355211437488</v>
+        <v>23.26413953220334</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.17397833176275</v>
+        <v>12.99621113652591</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.51090712242015</v>
+        <v>26.95264622383408</v>
       </c>
       <c r="C12">
-        <v>11.69932809685092</v>
+        <v>19.59553593121596</v>
       </c>
       <c r="D12">
-        <v>6.591119241447887</v>
+        <v>9.453273900993265</v>
       </c>
       <c r="E12">
-        <v>12.06462083622793</v>
+        <v>14.51225456559167</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>21.16196252437699</v>
+        <v>24.00384039210411</v>
       </c>
       <c r="H12">
-        <v>11.91085394672758</v>
+        <v>7.392087820811906</v>
       </c>
       <c r="I12">
-        <v>16.08357367090982</v>
+        <v>8.271580055012361</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.09194067770742</v>
+        <v>23.55586887399943</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.16411558129834</v>
+        <v>13.08471638438687</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.4744851165503</v>
+        <v>26.88332921517884</v>
       </c>
       <c r="C13">
-        <v>11.67363192506541</v>
+        <v>19.54727119365315</v>
       </c>
       <c r="D13">
-        <v>6.582909615135469</v>
+        <v>9.426719757794057</v>
       </c>
       <c r="E13">
-        <v>12.05828660122183</v>
+        <v>14.46574038716161</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>21.15480310613198</v>
+        <v>23.93485745081006</v>
       </c>
       <c r="H13">
-        <v>11.91319330554951</v>
+        <v>7.389135683675431</v>
       </c>
       <c r="I13">
-        <v>16.090644863847</v>
+        <v>8.283566107526594</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.07078794846697</v>
+        <v>23.49328215194965</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.1661971637304</v>
+        <v>13.06551028610443</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.35507956901145</v>
+        <v>26.65613292561546</v>
       </c>
       <c r="C14">
-        <v>11.58939777174285</v>
+        <v>19.38911627174708</v>
       </c>
       <c r="D14">
-        <v>6.556104234207076</v>
+        <v>9.339721222494717</v>
       </c>
       <c r="E14">
-        <v>12.03774859038798</v>
+        <v>14.31366710929357</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>21.131758556979</v>
+        <v>23.72388521392098</v>
       </c>
       <c r="H14">
-        <v>11.92089769622295</v>
+        <v>7.379830629303529</v>
       </c>
       <c r="I14">
-        <v>16.11383360765866</v>
+        <v>8.323387992728255</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.00166314968356</v>
+        <v>23.28824965994571</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.17314775893978</v>
+        <v>13.0034272802311</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.28146017893926</v>
+        <v>26.51609269893531</v>
       </c>
       <c r="C15">
-        <v>11.53746938245318</v>
+        <v>19.29166267882444</v>
       </c>
       <c r="D15">
-        <v>6.539661287080397</v>
+        <v>9.28612414895067</v>
       </c>
       <c r="E15">
-        <v>12.02526059257817</v>
+        <v>14.22022323467878</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>21.11787704829203</v>
+        <v>23.59754639663315</v>
       </c>
       <c r="H15">
-        <v>11.92567463263043</v>
+        <v>7.374376875822805</v>
       </c>
       <c r="I15">
-        <v>16.12813573364011</v>
+        <v>8.348332703002532</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.9592153476878</v>
+        <v>23.16194984959643</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.17752963910448</v>
+        <v>12.96582321933689</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.85224507496684</v>
+        <v>25.70010823254293</v>
       </c>
       <c r="C16">
-        <v>11.23481199915265</v>
+        <v>18.7243035024159</v>
       </c>
       <c r="D16">
-        <v>6.445097486719845</v>
+        <v>8.974227450148156</v>
       </c>
       <c r="E16">
-        <v>11.95512717640861</v>
+        <v>13.68012919929532</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>21.04193075834505</v>
+        <v>22.87730268021087</v>
       </c>
       <c r="H16">
-        <v>11.9539333699766</v>
+        <v>7.346810642088705</v>
       </c>
       <c r="I16">
-        <v>16.2116011642288</v>
+        <v>8.499335194314062</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.71439345525602</v>
+        <v>22.42719988163854</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.20454258229793</v>
+        <v>12.75678714642691</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.58242351761402</v>
+        <v>25.18746205435952</v>
       </c>
       <c r="C17">
-        <v>11.04463520326842</v>
+        <v>18.36829876913519</v>
       </c>
       <c r="D17">
-        <v>6.386819321025457</v>
+        <v>8.778611603938442</v>
       </c>
       <c r="E17">
-        <v>11.91339805104934</v>
+        <v>13.34459862214445</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>20.99857251275006</v>
+        <v>22.4389371524051</v>
       </c>
       <c r="H17">
-        <v>11.97205642365266</v>
+        <v>7.33310051832888</v>
       </c>
       <c r="I17">
-        <v>16.26414627320821</v>
+        <v>8.598724886425023</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.56287678235235</v>
+        <v>21.96658492114955</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.22280570967702</v>
+        <v>12.63427153902633</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.42484951180465</v>
+        <v>24.88815007386641</v>
       </c>
       <c r="C18">
-        <v>10.93360478031482</v>
+        <v>18.16060918538907</v>
       </c>
       <c r="D18">
-        <v>6.353214927589508</v>
+        <v>8.664512753684621</v>
       </c>
       <c r="E18">
-        <v>11.88988000616639</v>
+        <v>13.15003302332956</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>20.97482808312922</v>
+        <v>22.1881381781818</v>
       </c>
       <c r="H18">
-        <v>11.98276898738982</v>
+        <v>7.326355533651589</v>
       </c>
       <c r="I18">
-        <v>16.29486122733162</v>
+        <v>8.658210228601133</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.47527162536438</v>
+        <v>21.69799590051776</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.23392947035048</v>
+        <v>12.56588853587579</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.37109031857941</v>
+        <v>24.78604211299989</v>
       </c>
       <c r="C19">
-        <v>10.89573018582882</v>
+        <v>18.08978641401869</v>
       </c>
       <c r="D19">
-        <v>6.341823884983209</v>
+        <v>8.625607187687292</v>
       </c>
       <c r="E19">
-        <v>11.88200090705901</v>
+        <v>13.08388259936203</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>20.96699424049186</v>
+        <v>22.10345768372688</v>
       </c>
       <c r="H19">
-        <v>11.98644559434544</v>
+        <v>7.324264319452728</v>
       </c>
       <c r="I19">
-        <v>16.30534528852403</v>
+        <v>8.678734510975891</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.44553456097942</v>
+        <v>21.60642586375364</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.23780192012025</v>
+        <v>12.54309143194327</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.61139310332031</v>
+        <v>25.24249445466529</v>
       </c>
       <c r="C20">
-        <v>11.06505042418351</v>
+        <v>18.40649874437821</v>
       </c>
       <c r="D20">
-        <v>6.393032169700414</v>
+        <v>8.799599058632786</v>
       </c>
       <c r="E20">
-        <v>11.91779031498226</v>
+        <v>13.38047895031998</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>21.00306461788384</v>
+        <v>22.48546491267486</v>
       </c>
       <c r="H20">
-        <v>11.97009730360634</v>
+        <v>7.334441118275935</v>
       </c>
       <c r="I20">
-        <v>16.25850177995846</v>
+        <v>8.587901126254623</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.57905397051218</v>
+        <v>22.01599587786479</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.22079742007726</v>
+        <v>12.64709734370619</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.39025197149862</v>
+        <v>26.72304841753992</v>
       </c>
       <c r="C21">
-        <v>11.61420873084959</v>
+        <v>19.43569085663403</v>
       </c>
       <c r="D21">
-        <v>6.563982671349586</v>
+        <v>9.365338898709236</v>
       </c>
       <c r="E21">
-        <v>12.0437619471506</v>
+        <v>14.3583958893868</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>21.13847858957386</v>
+        <v>23.78453282780423</v>
       </c>
       <c r="H21">
-        <v>11.91862268619288</v>
+        <v>7.382512318324287</v>
       </c>
       <c r="I21">
-        <v>16.10700201107176</v>
+        <v>8.311575143756418</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.02198920800327</v>
+        <v>23.3486207709253</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.17108025531162</v>
+        <v>13.02157421289341</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.87782925075119</v>
+        <v>27.65142291571386</v>
       </c>
       <c r="C22">
-        <v>11.95825790586714</v>
+        <v>20.08239318595846</v>
       </c>
       <c r="D22">
-        <v>6.674675976744974</v>
+        <v>9.721261381205997</v>
       </c>
       <c r="E22">
-        <v>12.13023535254203</v>
+        <v>14.98424082726466</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>21.23746801238928</v>
+        <v>24.70871309028293</v>
       </c>
       <c r="H22">
-        <v>11.8875651777201</v>
+        <v>7.424838348527466</v>
       </c>
       <c r="I22">
-        <v>16.01238818931243</v>
+        <v>8.155263026091811</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.30677096815672</v>
+        <v>24.18764517772787</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.1441506241836</v>
+        <v>13.28522997465132</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.61957370546807</v>
+        <v>27.15950319492284</v>
       </c>
       <c r="C23">
-        <v>11.77600034911168</v>
+        <v>19.73960141696649</v>
       </c>
       <c r="D23">
-        <v>6.615704512758569</v>
+        <v>9.532548541099358</v>
       </c>
       <c r="E23">
-        <v>12.08371191506409</v>
+        <v>14.651389587097</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>21.18368381968487</v>
+        <v>24.2107127135884</v>
       </c>
       <c r="H23">
-        <v>11.90390405036578</v>
+        <v>7.401214124711203</v>
       </c>
       <c r="I23">
-        <v>16.06248198567041</v>
+        <v>8.236278502908762</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.15523714509209</v>
+        <v>23.74273052347363</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.15801217060283</v>
+        <v>13.1427666464993</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.59830358170995</v>
+        <v>25.21762859137095</v>
       </c>
       <c r="C24">
-        <v>11.0558259807798</v>
+        <v>18.38923793607364</v>
       </c>
       <c r="D24">
-        <v>6.390223647550605</v>
+        <v>8.790115731575259</v>
       </c>
       <c r="E24">
-        <v>11.9158030986554</v>
+        <v>13.36426264674732</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>21.00103005131505</v>
+        <v>22.46442588851176</v>
       </c>
       <c r="H24">
-        <v>11.97098210804646</v>
+        <v>7.333831499470728</v>
       </c>
       <c r="I24">
-        <v>16.26105207909185</v>
+        <v>8.592787282920693</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.57174180206741</v>
+        <v>21.99366895038462</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.22170342446033</v>
+        <v>12.64129240741164</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.40597373161038</v>
+        <v>22.95267211517633</v>
       </c>
       <c r="C25">
-        <v>10.2162730341465</v>
+        <v>16.82086274341983</v>
       </c>
       <c r="D25">
-        <v>6.143971464634494</v>
+        <v>7.928492398444953</v>
       </c>
       <c r="E25">
-        <v>11.75324296715695</v>
+        <v>12.0954719665452</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>20.8496920468704</v>
+        <v>20.66127736799601</v>
       </c>
       <c r="H25">
-        <v>12.05436463935812</v>
+        <v>7.304296069642172</v>
       </c>
       <c r="I25">
-        <v>16.4940605171451</v>
+        <v>9.064485240105775</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.92532700853111</v>
+        <v>19.96698987310625</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.31404760726798</v>
+        <v>12.17972244221265</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.13671420305628</v>
+        <v>13.61441379242855</v>
       </c>
       <c r="C2">
-        <v>15.56984526221971</v>
+        <v>9.639290109479436</v>
       </c>
       <c r="D2">
-        <v>7.240173731202511</v>
+        <v>7.104255512709727</v>
       </c>
       <c r="E2">
-        <v>11.26246264123949</v>
+        <v>28.49746067681763</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>19.38685274371961</v>
+        <v>22.81460887841247</v>
       </c>
       <c r="H2">
-        <v>7.315480194547548</v>
+        <v>2.67387119812539</v>
       </c>
       <c r="I2">
-        <v>9.470992585035997</v>
+        <v>2.537152091446987</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.032207471312137</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.74577176380855</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.35128195324221</v>
+        <v>12.7655924392785</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.90515498387228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.78606429431136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.81300297746344</v>
+        <v>12.77760375676834</v>
       </c>
       <c r="C3">
-        <v>14.6624246585584</v>
+        <v>9.154995231215656</v>
       </c>
       <c r="D3">
-        <v>6.739289517666854</v>
+        <v>6.618963935207156</v>
       </c>
       <c r="E3">
-        <v>10.7018188681984</v>
+        <v>26.64411691856485</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>18.56162882304982</v>
+        <v>22.37927954479728</v>
       </c>
       <c r="H3">
-        <v>7.341474446507805</v>
+        <v>2.446372851146106</v>
       </c>
       <c r="I3">
-        <v>9.777143544789043</v>
+        <v>2.55313027055982</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.047997408419242</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.84071833288302</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.17809754841756</v>
+        <v>12.08034302898996</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.75771827448466</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.71464588668842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.9543309231195</v>
+        <v>12.23333643648835</v>
       </c>
       <c r="C4">
-        <v>14.07619869203197</v>
+        <v>8.847716041896366</v>
       </c>
       <c r="D4">
-        <v>6.414527975174013</v>
+        <v>6.303678071374873</v>
       </c>
       <c r="E4">
-        <v>10.36055673861371</v>
+        <v>25.44077366989009</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>18.07585172595774</v>
+        <v>22.11869103746511</v>
       </c>
       <c r="H4">
-        <v>7.365813714204003</v>
+        <v>2.301711828310428</v>
       </c>
       <c r="I4">
-        <v>9.978560368014154</v>
+        <v>2.648236737982112</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.060446871696465</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.90277187215687</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.41891330635784</v>
+        <v>11.63925597231491</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.68536538890935</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.67630579379245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.5928894237381</v>
+        <v>12.00145839670813</v>
       </c>
       <c r="C5">
-        <v>13.83007342589591</v>
+        <v>8.729212440010441</v>
       </c>
       <c r="D5">
-        <v>6.277820721904651</v>
+        <v>6.187678251354212</v>
       </c>
       <c r="E5">
-        <v>10.22242663259678</v>
+        <v>24.93374801044208</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>17.88344960623018</v>
+        <v>21.99904426284549</v>
       </c>
       <c r="H5">
-        <v>7.377735477298914</v>
+        <v>2.241359969881558</v>
       </c>
       <c r="I5">
-        <v>10.06380327886128</v>
+        <v>2.691100531759292</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.063728421936572</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.92315399392872</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.0997492131469</v>
+        <v>11.45631165053499</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.66029928092824</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.65581484479671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.53217716770292</v>
+        <v>11.9594936802286</v>
       </c>
       <c r="C6">
-        <v>13.78877034764455</v>
+        <v>8.720584860423198</v>
       </c>
       <c r="D6">
-        <v>6.254855983615452</v>
+        <v>6.168728393061207</v>
       </c>
       <c r="E6">
-        <v>10.19955279469157</v>
+        <v>24.84833759735843</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>17.85184540484688</v>
+        <v>21.96071369722708</v>
       </c>
       <c r="H6">
-        <v>7.37983307530248</v>
+        <v>2.231101819049935</v>
       </c>
       <c r="I6">
-        <v>10.07814316917426</v>
+        <v>2.702260118198093</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.061303820553221</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.91949159934162</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.04616059941199</v>
+        <v>11.42786334653884</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.65639912008078</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.64490085596291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.94950302441666</v>
+        <v>12.22222489355081</v>
       </c>
       <c r="C7">
-        <v>14.0729085300473</v>
+        <v>8.876193044645378</v>
       </c>
       <c r="D7">
-        <v>6.412702010131595</v>
+        <v>6.301847106322897</v>
       </c>
       <c r="E7">
-        <v>10.35868980710175</v>
+        <v>25.4334057035245</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>18.07323404267017</v>
+        <v>22.06669067353419</v>
       </c>
       <c r="H7">
-        <v>7.365966519601471</v>
+        <v>2.300475349761212</v>
       </c>
       <c r="I7">
-        <v>9.979697435652964</v>
+        <v>2.659358169419194</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.052285602134399</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.88364829308438</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.41464860706187</v>
+        <v>11.64279969176743</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.68500966364451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.65535116908097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.68983139654029</v>
+        <v>13.32238612808446</v>
       </c>
       <c r="C8">
-        <v>15.26303688417348</v>
+        <v>9.512010767055395</v>
       </c>
       <c r="D8">
-        <v>7.07102080732343</v>
+        <v>6.940426986509747</v>
       </c>
       <c r="E8">
-        <v>11.06864061141462</v>
+        <v>27.87124643434208</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>19.09815480973974</v>
+        <v>22.59818299148347</v>
       </c>
       <c r="H8">
-        <v>7.322641276149587</v>
+        <v>2.595918835896478</v>
       </c>
       <c r="I8">
-        <v>9.573624690544722</v>
+        <v>2.491376927382342</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.026290600517815</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.75207897941846</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.95481156346796</v>
+        <v>12.54108677000679</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.85046171819613</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.73323158367278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.73856135249085</v>
+        <v>15.25026821145659</v>
       </c>
       <c r="C9">
-        <v>17.36414106013129</v>
+        <v>10.62809627301375</v>
       </c>
       <c r="D9">
-        <v>8.226999980129472</v>
+        <v>8.056604640584693</v>
       </c>
       <c r="E9">
-        <v>12.47758151509858</v>
+        <v>32.13603929748898</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>21.26103691524781</v>
+        <v>23.77875091588521</v>
       </c>
       <c r="H9">
-        <v>7.308847448863773</v>
+        <v>3.137404991437572</v>
       </c>
       <c r="I9">
-        <v>8.895451624797595</v>
+        <v>2.834898625771806</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.012786221588586</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.5602598287791</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.66867724313008</v>
+        <v>14.12816303502933</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.32483054992047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.96809867110104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.75800275296382</v>
+        <v>16.51726250915147</v>
       </c>
       <c r="C10">
-        <v>18.7645300189921</v>
+        <v>11.38254174563608</v>
       </c>
       <c r="D10">
-        <v>8.996334698363242</v>
+        <v>8.794535285188596</v>
       </c>
       <c r="E10">
-        <v>13.71820420527488</v>
+        <v>34.0798519353245</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>22.92750004981216</v>
+        <v>24.42427283564468</v>
       </c>
       <c r="H10">
-        <v>7.348532219229788</v>
+        <v>3.478497013651074</v>
       </c>
       <c r="I10">
-        <v>8.488319945142898</v>
+        <v>3.072637788413207</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.976632674265844</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.36805488864291</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.47926594416733</v>
+        <v>15.18483617460092</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.77105085872683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15.06521239932216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.62940494134481</v>
+        <v>17.06835796677295</v>
       </c>
       <c r="C11">
-        <v>19.37051452673593</v>
+        <v>11.53201438059463</v>
       </c>
       <c r="D11">
-        <v>9.329490115674705</v>
+        <v>9.106539597128169</v>
       </c>
       <c r="E11">
-        <v>14.29581533106088</v>
+        <v>27.42981622158761</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>23.69971117577457</v>
+        <v>22.693657772588</v>
       </c>
       <c r="H11">
-        <v>7.378773188955767</v>
+        <v>3.921256112112374</v>
       </c>
       <c r="I11">
-        <v>8.328125758489326</v>
+        <v>3.135381746676977</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.625633782754759</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.71721927263919</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.26413953220334</v>
+        <v>15.58092862286621</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.99621113652591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.25700463501292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.95264622383408</v>
+        <v>17.28845737727149</v>
       </c>
       <c r="C12">
-        <v>19.59553593121596</v>
+        <v>11.47058607995588</v>
       </c>
       <c r="D12">
-        <v>9.453273900993265</v>
+        <v>9.220027886885566</v>
       </c>
       <c r="E12">
-        <v>14.51225456559167</v>
+        <v>21.40613666074377</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>24.00384039210411</v>
+        <v>21.14922439008489</v>
       </c>
       <c r="H12">
-        <v>7.392087820811906</v>
+        <v>4.847877410973831</v>
       </c>
       <c r="I12">
-        <v>8.271580055012361</v>
+        <v>3.140222747300943</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.349086813216513</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.25158650424628</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.55586887399943</v>
+        <v>15.69563610320092</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.08471638438687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.58191727553971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.88332921517884</v>
+        <v>17.2650871332541</v>
       </c>
       <c r="C13">
-        <v>19.54727119365315</v>
+        <v>11.27971092058252</v>
       </c>
       <c r="D13">
-        <v>9.426719757794057</v>
+        <v>9.191320934478894</v>
       </c>
       <c r="E13">
-        <v>14.46574038716161</v>
+        <v>15.34009222068636</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>23.93485745081006</v>
+        <v>19.56413048628775</v>
       </c>
       <c r="H13">
-        <v>7.389135683675431</v>
+        <v>5.969642787295938</v>
       </c>
       <c r="I13">
-        <v>8.283566107526594</v>
+        <v>3.105142139144009</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.101348214043536</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.8743908541658</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.49328215194965</v>
+        <v>15.6117217086999</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.06551028610443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.93694521570802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.65613292561546</v>
+        <v>17.13682503164969</v>
       </c>
       <c r="C14">
-        <v>19.38911627174708</v>
+        <v>11.09386773896212</v>
       </c>
       <c r="D14">
-        <v>9.339721222494717</v>
+        <v>9.106659463379604</v>
       </c>
       <c r="E14">
-        <v>14.31366710929357</v>
+        <v>11.0648817538361</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>23.72388521392098</v>
+        <v>18.42327347432328</v>
       </c>
       <c r="H14">
-        <v>7.379830629303529</v>
+        <v>6.825289720503356</v>
       </c>
       <c r="I14">
-        <v>8.323387992728255</v>
+        <v>3.064224725281714</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.941090549748756</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.65269960417859</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.28824965994571</v>
+        <v>15.46411614445551</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.0034272802311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.49851899277735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.51609269893531</v>
+        <v>17.05019440636065</v>
       </c>
       <c r="C15">
-        <v>19.29166267882444</v>
+        <v>11.02931160698204</v>
       </c>
       <c r="D15">
-        <v>9.28612414895067</v>
+        <v>9.055258502565353</v>
       </c>
       <c r="E15">
-        <v>14.22022323467878</v>
+        <v>10.01508669236651</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>23.59754639663315</v>
+        <v>18.12348002308564</v>
       </c>
       <c r="H15">
-        <v>7.374376875822805</v>
+        <v>7.022158380391462</v>
       </c>
       <c r="I15">
-        <v>8.348332703002532</v>
+        <v>3.04645304934845</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.90614503342172</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.61138780371169</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.16194984959643</v>
+        <v>15.38664010065787</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.96582321933689</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.39309720702218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.70010823254293</v>
+        <v>16.53375336466003</v>
       </c>
       <c r="C16">
-        <v>18.7243035024159</v>
+        <v>10.76167330180423</v>
       </c>
       <c r="D16">
-        <v>8.974227450148156</v>
+        <v>8.75833860404321</v>
       </c>
       <c r="E16">
-        <v>13.68012919929532</v>
+        <v>9.922251746157736</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>22.87730268021087</v>
+        <v>18.09836969533006</v>
       </c>
       <c r="H16">
-        <v>7.346810642088705</v>
+        <v>6.751406270646394</v>
       </c>
       <c r="I16">
-        <v>8.499335194314062</v>
+        <v>2.955336086520124</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.968624760176342</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.7662832045812</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.42719988163854</v>
+        <v>14.96852814685441</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.75678714642691</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.46925411000896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.18746205435952</v>
+        <v>16.1995328955688</v>
       </c>
       <c r="C17">
-        <v>18.36829876913519</v>
+        <v>10.65625156564864</v>
       </c>
       <c r="D17">
-        <v>8.778611603938442</v>
+        <v>8.572683457726464</v>
       </c>
       <c r="E17">
-        <v>13.34459862214445</v>
+        <v>12.20419486359668</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>22.4389371524051</v>
+        <v>18.69201191771452</v>
       </c>
       <c r="H17">
-        <v>7.33310051832888</v>
+        <v>6.038622633082404</v>
       </c>
       <c r="I17">
-        <v>8.598724886425023</v>
+        <v>2.9067884507135</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.100573520927222</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.99796247139899</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.96658492114955</v>
+        <v>14.72321368712504</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.63427153902633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.75857565899078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.88815007386641</v>
+        <v>15.99832505543272</v>
       </c>
       <c r="C18">
-        <v>18.16060918538907</v>
+        <v>10.66326332864921</v>
       </c>
       <c r="D18">
-        <v>8.664512753684621</v>
+        <v>8.465937060533394</v>
       </c>
       <c r="E18">
-        <v>13.15003302332956</v>
+        <v>16.96496723178916</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>22.1881381781818</v>
+        <v>19.92187643803791</v>
       </c>
       <c r="H18">
-        <v>7.326355533651589</v>
+        <v>4.93603956938683</v>
       </c>
       <c r="I18">
-        <v>8.658210228601133</v>
+        <v>2.888515675665281</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.31466844526387</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.34557564449482</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.69799590051776</v>
+        <v>14.60166953493002</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.56588853587579</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.28234285231494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.78604211299989</v>
+        <v>15.91193309859283</v>
       </c>
       <c r="C19">
-        <v>18.08978641401869</v>
+        <v>10.81313005043033</v>
       </c>
       <c r="D19">
-        <v>8.625607187687292</v>
+        <v>8.432281350287214</v>
       </c>
       <c r="E19">
-        <v>13.08388259936203</v>
+        <v>23.36017126269384</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>22.10345768372688</v>
+        <v>21.49836469409842</v>
       </c>
       <c r="H19">
-        <v>7.324264319452728</v>
+        <v>3.835046584415194</v>
       </c>
       <c r="I19">
-        <v>8.678734510975891</v>
+        <v>2.908740281197349</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.57076221809422</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.75154148366094</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.60642586375364</v>
+        <v>14.60293137323943</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.54309143194327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.9332852412852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.24249445466529</v>
+        <v>16.17513353265912</v>
       </c>
       <c r="C20">
-        <v>18.40649874437821</v>
+        <v>11.26416940852105</v>
       </c>
       <c r="D20">
-        <v>8.799599058632786</v>
+        <v>8.605956313225038</v>
       </c>
       <c r="E20">
-        <v>13.38047895031998</v>
+        <v>33.54036734908735</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>22.48546491267486</v>
+        <v>24.10101672917949</v>
       </c>
       <c r="H20">
-        <v>7.334441118275935</v>
+        <v>3.386687493337903</v>
       </c>
       <c r="I20">
-        <v>8.587901126254623</v>
+        <v>3.020408583310091</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.958595267103341</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.35452136238162</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.01599587786479</v>
+        <v>14.92944457851922</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.64709734370619</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14.97211152513004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.72304841753992</v>
+        <v>17.10335889010586</v>
       </c>
       <c r="C21">
-        <v>19.43569085663403</v>
+        <v>11.84701730230607</v>
       </c>
       <c r="D21">
-        <v>9.365338898709236</v>
+        <v>9.14815825344817</v>
       </c>
       <c r="E21">
-        <v>14.3583958893868</v>
+        <v>36.30441340935543</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>23.78453282780423</v>
+        <v>24.99207625703363</v>
       </c>
       <c r="H21">
-        <v>7.382512318324287</v>
+        <v>3.696348782953295</v>
       </c>
       <c r="I21">
-        <v>8.311575143756418</v>
+        <v>3.206903076602036</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.000164698523564</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.32575558488214</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.3486207709253</v>
+        <v>15.7161960852984</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.02157421289341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.21988025549327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.65142291571386</v>
+        <v>17.69154858755279</v>
       </c>
       <c r="C22">
-        <v>20.08239318595846</v>
+        <v>12.17502792513233</v>
       </c>
       <c r="D22">
-        <v>9.721261381205997</v>
+        <v>9.487930354061062</v>
       </c>
       <c r="E22">
-        <v>14.98424082726466</v>
+        <v>37.6013849474579</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>24.70871309028293</v>
+        <v>25.51758298140624</v>
       </c>
       <c r="H22">
-        <v>7.424838348527466</v>
+        <v>3.877275277259989</v>
       </c>
       <c r="I22">
-        <v>8.155263026091811</v>
+        <v>3.320428727914333</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.021625567687632</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.30456324421709</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.18764517772787</v>
+        <v>16.20091990728865</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.28522997465132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15.36383158627531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.15950319492284</v>
+        <v>17.38699621038832</v>
       </c>
       <c r="C23">
-        <v>19.73960141696649</v>
+        <v>11.97303511718574</v>
       </c>
       <c r="D23">
-        <v>9.532548541099358</v>
+        <v>9.307962804969318</v>
       </c>
       <c r="E23">
-        <v>14.651389587097</v>
+        <v>36.91473243866354</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>24.2107127135884</v>
+        <v>25.28828011288066</v>
       </c>
       <c r="H23">
-        <v>7.401214124711203</v>
+        <v>3.781428363409555</v>
       </c>
       <c r="I23">
-        <v>8.236278502908762</v>
+        <v>3.256322280333732</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.019192448034961</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.33810700791882</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.74273052347363</v>
+        <v>15.93844415046738</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.1427666464993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15.30920121294265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.21762859137095</v>
+        <v>16.16948053623076</v>
       </c>
       <c r="C24">
-        <v>18.38923793607364</v>
+        <v>11.23055676135725</v>
       </c>
       <c r="D24">
-        <v>8.790115731575259</v>
+        <v>8.597556535756343</v>
       </c>
       <c r="E24">
-        <v>13.36426264674732</v>
+        <v>34.20225842754451</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>22.46442588851176</v>
+        <v>24.34997192723356</v>
       </c>
       <c r="H24">
-        <v>7.333831499470728</v>
+        <v>3.410577315978891</v>
       </c>
       <c r="I24">
-        <v>8.592787282920693</v>
+        <v>3.015638516117389</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.002294031585546</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.43992561380206</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.99366895038462</v>
+        <v>14.91411167097573</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.64129240741164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15.08000775404338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.95267211517633</v>
+        <v>14.74254314449069</v>
       </c>
       <c r="C25">
-        <v>16.82086274341983</v>
+        <v>10.38280070841125</v>
       </c>
       <c r="D25">
-        <v>7.928492398444953</v>
+        <v>7.768944384479508</v>
       </c>
       <c r="E25">
-        <v>12.0954719665452</v>
+        <v>31.03637642365538</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>20.66127736799601</v>
+        <v>23.36903284817043</v>
       </c>
       <c r="H25">
-        <v>7.304296069642172</v>
+        <v>2.994245985512708</v>
       </c>
       <c r="I25">
-        <v>9.064485240105775</v>
+        <v>2.748988673658085</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.999263082235684</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.57361866734873</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.96698987310625</v>
+        <v>13.72629405828114</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.17972244221265</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.86315742297349</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.61441379242855</v>
+        <v>13.5600292620088</v>
       </c>
       <c r="C2">
-        <v>9.639290109479436</v>
+        <v>9.877624956591243</v>
       </c>
       <c r="D2">
-        <v>7.104255512709727</v>
+        <v>7.105971302353588</v>
       </c>
       <c r="E2">
-        <v>28.49746067681763</v>
+        <v>28.51314143661271</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22.81460887841247</v>
+        <v>21.34434596419459</v>
       </c>
       <c r="H2">
-        <v>2.67387119812539</v>
+        <v>2.685321339566757</v>
       </c>
       <c r="I2">
-        <v>2.537152091446987</v>
+        <v>2.602914476483573</v>
       </c>
       <c r="J2">
-        <v>9.032207471312137</v>
+        <v>9.312634308961156</v>
       </c>
       <c r="K2">
-        <v>13.74577176380855</v>
+        <v>13.27829414868925</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.57086972051549</v>
       </c>
       <c r="M2">
-        <v>12.7655924392785</v>
+        <v>8.075392820017667</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.84877388926139</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.78606429431136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.40447255573634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.77760375676834</v>
+        <v>12.75342374456554</v>
       </c>
       <c r="C3">
-        <v>9.154995231215656</v>
+        <v>9.289397186872538</v>
       </c>
       <c r="D3">
-        <v>6.618963935207156</v>
+        <v>6.621399053427014</v>
       </c>
       <c r="E3">
-        <v>26.64411691856485</v>
+        <v>26.66833738375145</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.37927954479728</v>
+        <v>21.03534169534016</v>
       </c>
       <c r="H3">
-        <v>2.446372851146106</v>
+        <v>2.463842354099424</v>
       </c>
       <c r="I3">
-        <v>2.55313027055982</v>
+        <v>2.475258711607808</v>
       </c>
       <c r="J3">
-        <v>9.047997408419242</v>
+        <v>9.311811793593284</v>
       </c>
       <c r="K3">
-        <v>13.84071833288302</v>
+        <v>13.40442743778802</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.73801480320465</v>
       </c>
       <c r="M3">
-        <v>12.08034302898996</v>
+        <v>8.117714786116888</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.15033455266017</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.71464588668842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.3753070058225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.23333643648835</v>
+        <v>12.22913804987873</v>
       </c>
       <c r="C4">
-        <v>8.847716041896366</v>
+        <v>8.914619480342083</v>
       </c>
       <c r="D4">
-        <v>6.303678071374873</v>
+        <v>6.306496462472501</v>
       </c>
       <c r="E4">
-        <v>25.44077366989009</v>
+        <v>25.47054200289289</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.11869103746511</v>
+        <v>20.85475616757466</v>
       </c>
       <c r="H4">
-        <v>2.301711828310428</v>
+        <v>2.32296391636444</v>
       </c>
       <c r="I4">
-        <v>2.648236737982112</v>
+        <v>2.557383255369257</v>
       </c>
       <c r="J4">
-        <v>9.060446871696465</v>
+        <v>9.312169480001421</v>
       </c>
       <c r="K4">
-        <v>13.90277187215687</v>
+        <v>13.48429921413686</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.84296462179356</v>
       </c>
       <c r="M4">
-        <v>11.63925597231491</v>
+        <v>8.1630477440082</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.70077739789764</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.67630579379245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.36177741154178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.00145839670813</v>
+        <v>12.00585665712205</v>
       </c>
       <c r="C5">
-        <v>8.729212440010441</v>
+        <v>8.768012564839946</v>
       </c>
       <c r="D5">
-        <v>6.187678251354212</v>
+        <v>6.189767263066675</v>
       </c>
       <c r="E5">
-        <v>24.93374801044208</v>
+        <v>24.9658725962822</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.99904426284549</v>
+        <v>20.76855266090121</v>
       </c>
       <c r="H5">
-        <v>2.241359969881558</v>
+        <v>2.264182967590227</v>
       </c>
       <c r="I5">
-        <v>2.691100531759292</v>
+        <v>2.59636406691307</v>
       </c>
       <c r="J5">
-        <v>9.063728421936572</v>
+        <v>9.310167726257996</v>
       </c>
       <c r="K5">
-        <v>13.92315399392872</v>
+        <v>13.51200635914161</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.88120629080271</v>
       </c>
       <c r="M5">
-        <v>11.45631165053499</v>
+        <v>8.183333319964317</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.51426233680541</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.65581484479671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.35136810250402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.9594936802286</v>
+        <v>11.96543864828702</v>
       </c>
       <c r="C6">
-        <v>8.720584860423198</v>
+        <v>8.755036489282158</v>
       </c>
       <c r="D6">
-        <v>6.168728393061207</v>
+        <v>6.170827634639057</v>
       </c>
       <c r="E6">
-        <v>24.84833759735843</v>
+        <v>24.88086831774632</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.96071369722708</v>
+        <v>20.73621482490422</v>
       </c>
       <c r="H6">
-        <v>2.231101819049935</v>
+        <v>2.2541949802494</v>
       </c>
       <c r="I6">
-        <v>2.702260118198093</v>
+        <v>2.607593374915448</v>
       </c>
       <c r="J6">
-        <v>9.061303820553221</v>
+        <v>9.306966713148956</v>
       </c>
       <c r="K6">
-        <v>13.91949159934162</v>
+        <v>13.5100149999439</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.88135514741773</v>
       </c>
       <c r="M6">
-        <v>11.42786334653884</v>
+        <v>8.183361667316591</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.48517125279057</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.64490085596291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.34243243239463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.22222489355081</v>
+        <v>12.21919304233648</v>
       </c>
       <c r="C7">
-        <v>8.876193044645378</v>
+        <v>8.938557800125968</v>
       </c>
       <c r="D7">
-        <v>6.301847106322897</v>
+        <v>6.304626189760802</v>
       </c>
       <c r="E7">
-        <v>25.4334057035245</v>
+        <v>25.46276355450773</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.06669067353419</v>
+        <v>20.88041263370294</v>
       </c>
       <c r="H7">
-        <v>2.300475349761212</v>
+        <v>2.32143756901207</v>
       </c>
       <c r="I7">
-        <v>2.659358169419194</v>
+        <v>2.570833877325847</v>
       </c>
       <c r="J7">
-        <v>9.052285602134399</v>
+        <v>9.268246079706586</v>
       </c>
       <c r="K7">
-        <v>13.88364829308438</v>
+        <v>13.45970877373769</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.82054835892698</v>
       </c>
       <c r="M7">
-        <v>11.64279969176743</v>
+        <v>8.148842266868703</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.70281554461321</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.65535116908097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.33039689999845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.32238612808446</v>
+        <v>13.28092968204609</v>
       </c>
       <c r="C8">
-        <v>9.512010767055395</v>
+        <v>9.70039989257133</v>
       </c>
       <c r="D8">
-        <v>6.940426986509747</v>
+        <v>6.942257902330843</v>
       </c>
       <c r="E8">
-        <v>27.87124643434208</v>
+        <v>27.88844176212207</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>22.59818299148347</v>
+        <v>21.42179148808229</v>
       </c>
       <c r="H8">
-        <v>2.595918835896478</v>
+        <v>2.608432739266189</v>
       </c>
       <c r="I8">
-        <v>2.491376927382342</v>
+        <v>2.562365461699572</v>
       </c>
       <c r="J8">
-        <v>9.026290600517815</v>
+        <v>9.184383922137147</v>
       </c>
       <c r="K8">
-        <v>13.75207897941846</v>
+        <v>13.2750367261036</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.58910219516519</v>
       </c>
       <c r="M8">
-        <v>12.54108677000679</v>
+        <v>8.054260572824063</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.61554628466111</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.73323158367278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.33010509041156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.25026821145659</v>
+        <v>15.14094992564461</v>
       </c>
       <c r="C9">
-        <v>10.62809627301375</v>
+        <v>11.05131192924337</v>
       </c>
       <c r="D9">
-        <v>8.056604640584693</v>
+        <v>8.056219027338809</v>
       </c>
       <c r="E9">
-        <v>32.13603929748898</v>
+        <v>32.13298531573383</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>23.77875091588521</v>
+        <v>22.3606213758403</v>
       </c>
       <c r="H9">
-        <v>3.137404991437572</v>
+        <v>3.135142819473979</v>
       </c>
       <c r="I9">
-        <v>2.834898625771806</v>
+        <v>2.866173306015586</v>
       </c>
       <c r="J9">
-        <v>9.012786221588586</v>
+        <v>9.169063781501631</v>
       </c>
       <c r="K9">
-        <v>13.5602598287791</v>
+        <v>12.98996345040774</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.20252044901107</v>
       </c>
       <c r="M9">
-        <v>14.12816303502933</v>
+        <v>8.062700982468227</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.2326762529374</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.96809867110104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.44312199041515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.51726250915147</v>
+        <v>16.37058164030827</v>
       </c>
       <c r="C10">
-        <v>11.38254174563608</v>
+        <v>11.9253793829983</v>
       </c>
       <c r="D10">
-        <v>8.794535285188596</v>
+        <v>8.791926449394676</v>
       </c>
       <c r="E10">
-        <v>34.0798519353245</v>
+        <v>34.06103797127378</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>24.42427283564468</v>
+        <v>23.27596222612316</v>
       </c>
       <c r="H10">
-        <v>3.478497013651074</v>
+        <v>3.46454914520692</v>
       </c>
       <c r="I10">
-        <v>3.072637788413207</v>
+        <v>3.075667362812901</v>
       </c>
       <c r="J10">
-        <v>8.976632674265844</v>
+        <v>8.932000712684921</v>
       </c>
       <c r="K10">
-        <v>13.36805488864291</v>
+        <v>12.69654067997039</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.86349398648452</v>
       </c>
       <c r="M10">
-        <v>15.18483617460092</v>
+        <v>8.078903666284404</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.30108879139254</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.06521239932216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.39392381942848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.06835796677295</v>
+        <v>16.93566071084085</v>
       </c>
       <c r="C11">
-        <v>11.53201438059463</v>
+        <v>11.99302519595984</v>
       </c>
       <c r="D11">
-        <v>9.106539597128169</v>
+        <v>9.102861326915011</v>
       </c>
       <c r="E11">
-        <v>27.42981622158761</v>
+        <v>27.40375139343524</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>22.693657772588</v>
+        <v>22.51460481572407</v>
       </c>
       <c r="H11">
-        <v>3.921256112112374</v>
+        <v>3.905327327053072</v>
       </c>
       <c r="I11">
-        <v>3.135381746676977</v>
+        <v>3.130226336169589</v>
       </c>
       <c r="J11">
-        <v>8.625633782754759</v>
+        <v>8.28483808351166</v>
       </c>
       <c r="K11">
-        <v>12.71721927263919</v>
+        <v>12.05641481385588</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.39069029303781</v>
       </c>
       <c r="M11">
-        <v>15.58092862286621</v>
+        <v>7.626685123206617</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.67576516634563</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.25700463501292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.51309212532153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.28845737727149</v>
+        <v>17.172461932571</v>
       </c>
       <c r="C12">
-        <v>11.47058607995588</v>
+        <v>11.85155520668447</v>
       </c>
       <c r="D12">
-        <v>9.220027886885566</v>
+        <v>9.216069296925218</v>
       </c>
       <c r="E12">
-        <v>21.40613666074377</v>
+        <v>21.37681588780374</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>21.14922439008489</v>
+        <v>21.46460291538157</v>
       </c>
       <c r="H12">
-        <v>4.847877410973831</v>
+        <v>4.834856904384986</v>
       </c>
       <c r="I12">
-        <v>3.140222747300943</v>
+        <v>3.132909774529617</v>
       </c>
       <c r="J12">
-        <v>8.349086813216513</v>
+        <v>7.96015775496513</v>
       </c>
       <c r="K12">
-        <v>12.25158650424628</v>
+        <v>11.64860174489849</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.12384272326977</v>
       </c>
       <c r="M12">
-        <v>15.69563610320092</v>
+        <v>7.283094428382054</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.77330074290832</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.58191727553971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.85172989930521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.2650871332541</v>
+        <v>17.16766504658317</v>
       </c>
       <c r="C13">
-        <v>11.27971092058252</v>
+        <v>11.58572847543475</v>
       </c>
       <c r="D13">
-        <v>9.191320934478894</v>
+        <v>9.187793925226737</v>
       </c>
       <c r="E13">
-        <v>15.34009222068636</v>
+        <v>15.31024311533787</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>19.56413048628775</v>
+        <v>19.86120289126098</v>
       </c>
       <c r="H13">
-        <v>5.969642787295938</v>
+        <v>5.960664246520482</v>
       </c>
       <c r="I13">
-        <v>3.105142139144009</v>
+        <v>3.102357571193212</v>
       </c>
       <c r="J13">
-        <v>8.101348214043536</v>
+        <v>7.849648251947993</v>
       </c>
       <c r="K13">
-        <v>11.8743908541658</v>
+        <v>11.37640427512759</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.966471700758175</v>
       </c>
       <c r="M13">
-        <v>15.6117217086999</v>
+        <v>7.000126985212479</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.67628230014269</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.93694521570802</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.31030674208612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.13682503164969</v>
+        <v>17.05351811941273</v>
       </c>
       <c r="C14">
-        <v>11.09386773896212</v>
+        <v>11.34839775447088</v>
       </c>
       <c r="D14">
-        <v>9.106659463379604</v>
+        <v>9.103735303652339</v>
       </c>
       <c r="E14">
-        <v>11.0648817538361</v>
+        <v>11.03509326548524</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>18.42327347432328</v>
+        <v>18.48803125472855</v>
       </c>
       <c r="H14">
-        <v>6.825289720503356</v>
+        <v>6.818943920596054</v>
       </c>
       <c r="I14">
-        <v>3.064224725281714</v>
+        <v>3.067844849267597</v>
       </c>
       <c r="J14">
-        <v>7.941090549748756</v>
+        <v>7.844448965361551</v>
       </c>
       <c r="K14">
-        <v>11.65269960417859</v>
+        <v>11.24233596953538</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.896397430911735</v>
       </c>
       <c r="M14">
-        <v>15.46411614445551</v>
+        <v>6.832038612426755</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.52100117586658</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.49851899277735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.97946123245963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.05019440636065</v>
+        <v>16.97100134880391</v>
       </c>
       <c r="C15">
-        <v>11.02931160698204</v>
+        <v>11.27144711356189</v>
       </c>
       <c r="D15">
-        <v>9.055258502565353</v>
+        <v>9.052627171042714</v>
       </c>
       <c r="E15">
-        <v>10.01508669236651</v>
+        <v>9.986415442610312</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>18.12348002308564</v>
+        <v>18.04207886763441</v>
       </c>
       <c r="H15">
-        <v>7.022158380391462</v>
+        <v>7.016641047949227</v>
       </c>
       <c r="I15">
-        <v>3.04645304934845</v>
+        <v>3.053599472397307</v>
       </c>
       <c r="J15">
-        <v>7.90614503342172</v>
+        <v>7.872672950716053</v>
       </c>
       <c r="K15">
-        <v>11.61138780371169</v>
+        <v>11.2289368647466</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.892471415733411</v>
       </c>
       <c r="M15">
-        <v>15.38664010065787</v>
+        <v>6.800197942767568</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.44232372335384</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.39309720702218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.91498772108791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.53375336466003</v>
+        <v>16.46119876122</v>
       </c>
       <c r="C16">
-        <v>10.76167330180423</v>
+        <v>11.00089491097375</v>
       </c>
       <c r="D16">
-        <v>8.75833860404321</v>
+        <v>8.757030250475871</v>
       </c>
       <c r="E16">
-        <v>9.922251746157736</v>
+        <v>9.907361633322884</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>18.09836969533006</v>
+        <v>17.30019420504716</v>
       </c>
       <c r="H16">
-        <v>6.751406270646394</v>
+        <v>6.748577002066503</v>
       </c>
       <c r="I16">
-        <v>2.955336086520124</v>
+        <v>2.977142752022884</v>
       </c>
       <c r="J16">
-        <v>7.968624760176342</v>
+        <v>8.169011537425142</v>
       </c>
       <c r="K16">
-        <v>11.7662832045812</v>
+        <v>11.43752600406422</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.03815227950447</v>
       </c>
       <c r="M16">
-        <v>14.96852814685441</v>
+        <v>6.911940252488924</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.03014519786552</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.46925411000896</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.11213218712816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.1995328955688</v>
+        <v>16.12552688732315</v>
       </c>
       <c r="C17">
-        <v>10.65625156564864</v>
+        <v>10.91555850484662</v>
       </c>
       <c r="D17">
-        <v>8.572683457726464</v>
+        <v>8.571990540747757</v>
       </c>
       <c r="E17">
-        <v>12.20419486359668</v>
+        <v>12.19706028192065</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>18.69201191771452</v>
+        <v>17.56862911446783</v>
       </c>
       <c r="H17">
-        <v>6.038622633082404</v>
+        <v>6.036934544714695</v>
       </c>
       <c r="I17">
-        <v>2.9067884507135</v>
+        <v>2.936137993919858</v>
       </c>
       <c r="J17">
-        <v>8.100573520927222</v>
+        <v>8.393985175367339</v>
       </c>
       <c r="K17">
-        <v>11.99796247139899</v>
+        <v>11.66478508081681</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.19682016777726</v>
       </c>
       <c r="M17">
-        <v>14.72321368712504</v>
+        <v>7.073605886266083</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.79216808110197</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.75857565899078</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.4280991486873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.99832505543272</v>
+        <v>15.91373015731308</v>
       </c>
       <c r="C18">
-        <v>10.66326332864921</v>
+        <v>10.97391382624343</v>
       </c>
       <c r="D18">
-        <v>8.465937060533394</v>
+        <v>8.465422480939006</v>
       </c>
       <c r="E18">
-        <v>16.96496723178916</v>
+        <v>16.96041150287679</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>19.92187643803791</v>
+        <v>18.60048009808116</v>
       </c>
       <c r="H18">
-        <v>4.93603956938683</v>
+        <v>4.934453210680383</v>
       </c>
       <c r="I18">
-        <v>2.888515675665281</v>
+        <v>2.919180251917843</v>
       </c>
       <c r="J18">
-        <v>8.31466844526387</v>
+        <v>8.627984211759065</v>
       </c>
       <c r="K18">
-        <v>12.34557564449482</v>
+        <v>11.96619613774352</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.40910525185706</v>
       </c>
       <c r="M18">
-        <v>14.60166953493002</v>
+        <v>7.315832529906877</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.68210385450855</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.28234285231494</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.92211201997416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.91193309859283</v>
+        <v>15.80979200527318</v>
       </c>
       <c r="C19">
-        <v>10.81313005043033</v>
+        <v>11.20032233921032</v>
       </c>
       <c r="D19">
-        <v>8.432281350287214</v>
+        <v>8.431602759581398</v>
       </c>
       <c r="E19">
-        <v>23.36017126269384</v>
+        <v>23.35477301711767</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>21.49836469409842</v>
+        <v>20.03032500326331</v>
       </c>
       <c r="H19">
-        <v>3.835046584415194</v>
+        <v>3.832172667278654</v>
       </c>
       <c r="I19">
-        <v>2.908740281197349</v>
+        <v>2.9378181942956</v>
       </c>
       <c r="J19">
-        <v>8.57076221809422</v>
+        <v>8.863017510076977</v>
       </c>
       <c r="K19">
-        <v>12.75154148366094</v>
+        <v>12.29894115933691</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.64459834574271</v>
       </c>
       <c r="M19">
-        <v>14.60293137323943</v>
+        <v>7.597309677213561</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.69767446951544</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.9332852412852</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.50894181919012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.17513353265912</v>
+        <v>16.03632609796232</v>
       </c>
       <c r="C20">
-        <v>11.26416940852105</v>
+        <v>11.79213763419227</v>
       </c>
       <c r="D20">
-        <v>8.605956313225038</v>
+        <v>8.604146899330908</v>
       </c>
       <c r="E20">
-        <v>33.54036734908735</v>
+        <v>33.52701707143488</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.10101672917949</v>
+        <v>22.63004582173121</v>
       </c>
       <c r="H20">
-        <v>3.386687493337903</v>
+        <v>3.376787467869775</v>
       </c>
       <c r="I20">
-        <v>3.020408583310091</v>
+        <v>3.035540605365389</v>
       </c>
       <c r="J20">
-        <v>8.958595267103341</v>
+        <v>9.090562505772416</v>
       </c>
       <c r="K20">
-        <v>13.35452136238162</v>
+        <v>12.74086919391275</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.92913322191348</v>
       </c>
       <c r="M20">
-        <v>14.92944457851922</v>
+        <v>8.041470590204222</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.04607135664124</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.97211152513004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.3826741838351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.10335889010586</v>
+        <v>16.94519877841474</v>
       </c>
       <c r="C21">
-        <v>11.84701730230607</v>
+        <v>12.40318032974458</v>
       </c>
       <c r="D21">
-        <v>9.14815825344817</v>
+        <v>9.143530157561788</v>
       </c>
       <c r="E21">
-        <v>36.30441340935543</v>
+        <v>36.27239578850912</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>24.99207625703363</v>
+        <v>25.04740280078976</v>
       </c>
       <c r="H21">
-        <v>3.696348782953295</v>
+        <v>3.67252026896743</v>
       </c>
       <c r="I21">
-        <v>3.206903076602036</v>
+        <v>3.192649031470467</v>
       </c>
       <c r="J21">
-        <v>9.000164698523564</v>
+        <v>8.382109649161535</v>
       </c>
       <c r="K21">
-        <v>13.32575558488214</v>
+        <v>12.48512964732539</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.65926235791043</v>
       </c>
       <c r="M21">
-        <v>15.7161960852984</v>
+        <v>8.044490992606391</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.82543261654185</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.21988025549327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.292410162682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.69154858755279</v>
+        <v>17.52353723813951</v>
       </c>
       <c r="C22">
-        <v>12.17502792513233</v>
+        <v>12.73810664806265</v>
       </c>
       <c r="D22">
-        <v>9.487930354061062</v>
+        <v>9.481353610364817</v>
       </c>
       <c r="E22">
-        <v>37.6013849474579</v>
+        <v>37.55753405832842</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>25.51758298140624</v>
+        <v>26.68107476559102</v>
       </c>
       <c r="H22">
-        <v>3.877275277259989</v>
+        <v>3.844660903258584</v>
       </c>
       <c r="I22">
-        <v>3.320428727914333</v>
+        <v>3.286405475221382</v>
       </c>
       <c r="J22">
-        <v>9.021625567687632</v>
+        <v>7.941227519455979</v>
       </c>
       <c r="K22">
-        <v>13.30456324421709</v>
+        <v>12.30557633074323</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.48016629950842</v>
       </c>
       <c r="M22">
-        <v>16.20091990728865</v>
+        <v>8.045711073420412</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.30362978915122</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.36383158627531</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.20166228990849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.38699621038832</v>
+        <v>17.22225813755532</v>
       </c>
       <c r="C23">
-        <v>11.97303511718574</v>
+        <v>12.54230612102257</v>
       </c>
       <c r="D23">
-        <v>9.307962804969318</v>
+        <v>9.302539607229496</v>
       </c>
       <c r="E23">
-        <v>36.91473243866354</v>
+        <v>36.87786404763725</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.28828011288066</v>
+        <v>25.67083301932094</v>
       </c>
       <c r="H23">
-        <v>3.781428363409555</v>
+        <v>3.753999656644127</v>
       </c>
       <c r="I23">
-        <v>3.256322280333732</v>
+        <v>3.232228715435166</v>
       </c>
       <c r="J23">
-        <v>9.019192448034961</v>
+        <v>8.244315313924917</v>
       </c>
       <c r="K23">
-        <v>13.33810700791882</v>
+        <v>12.43843277368742</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.59779456457572</v>
       </c>
       <c r="M23">
-        <v>15.93844415046738</v>
+        <v>8.078819956189777</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.04721768295386</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.30920121294265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.29987419865405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.16948053623076</v>
+        <v>16.02859668138543</v>
       </c>
       <c r="C24">
-        <v>11.23055676135725</v>
+        <v>11.76532114778085</v>
       </c>
       <c r="D24">
-        <v>8.597556535756343</v>
+        <v>8.59572944913349</v>
       </c>
       <c r="E24">
-        <v>34.20225842754451</v>
+        <v>34.18876838469681</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>24.34997192723356</v>
+        <v>22.85174733587884</v>
       </c>
       <c r="H24">
-        <v>3.410577315978891</v>
+        <v>3.400550935868532</v>
       </c>
       <c r="I24">
-        <v>3.015638516117389</v>
+        <v>3.028442285435905</v>
       </c>
       <c r="J24">
-        <v>9.002294031585546</v>
+        <v>9.134804681449122</v>
       </c>
       <c r="K24">
-        <v>13.43992561380206</v>
+        <v>12.81499944296325</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.98182849932307</v>
       </c>
       <c r="M24">
-        <v>14.91411167097573</v>
+        <v>8.102909024422319</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.03234413928642</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.08000775404338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.48344437094817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.74254314449069</v>
+        <v>14.64988213104099</v>
       </c>
       <c r="C25">
-        <v>10.38280070841125</v>
+        <v>10.75310754483901</v>
       </c>
       <c r="D25">
-        <v>7.768944384479508</v>
+        <v>7.769292877363839</v>
       </c>
       <c r="E25">
-        <v>31.03637642365538</v>
+        <v>31.03924952361588</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.36903284817043</v>
+        <v>21.91109960571259</v>
       </c>
       <c r="H25">
-        <v>2.994245985512708</v>
+        <v>2.99636810051924</v>
       </c>
       <c r="I25">
-        <v>2.748988673658085</v>
+        <v>2.793091301020634</v>
       </c>
       <c r="J25">
-        <v>8.999263082235684</v>
+        <v>9.208825882313626</v>
       </c>
       <c r="K25">
-        <v>13.57361866734873</v>
+        <v>13.04286487569805</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.288879533467</v>
       </c>
       <c r="M25">
-        <v>13.72629405828114</v>
+        <v>8.025691050616899</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.82451281392945</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.86315742297349</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.38984841084839</v>
       </c>
     </row>
   </sheetData>
